--- a/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
+++ b/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\fotocopias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvidenciasParaBitacoras\fotocopias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="COMUNIÓN" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="137">
   <si>
     <t>FECHA</t>
   </si>
@@ -1614,6 +1614,24 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,22 +1650,85 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,87 +1746,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,6 +1782,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,9 +1794,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1857,6 +1857,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,15 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4107,15 +4107,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
@@ -4669,9 +4669,13 @@
       <c r="Y15" s="77"/>
     </row>
     <row r="16" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
+      <c r="B16" s="102">
+        <v>45610</v>
+      </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="77">
+        <v>12</v>
+      </c>
       <c r="E16" s="102">
         <v>45351</v>
       </c>
@@ -4682,9 +4686,13 @@
       <c r="H16" s="103"/>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="102"/>
+      <c r="K16" s="102">
+        <v>45604</v>
+      </c>
       <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="77">
+        <v>10</v>
+      </c>
       <c r="N16" s="102"/>
       <c r="O16" s="77"/>
       <c r="P16" s="77"/>
@@ -4699,9 +4707,15 @@
       <c r="Y16" s="77"/>
     </row>
     <row r="17" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="102">
+        <v>45603</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="77">
+        <v>185</v>
+      </c>
       <c r="E17" s="102">
         <v>45372</v>
       </c>
@@ -5560,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A25" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5593,7 +5607,7 @@
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="241"/>
       <c r="B2" s="241"/>
-      <c r="C2" s="258" t="s">
+      <c r="C2" s="252" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="241"/>
@@ -5619,7 +5633,7 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="241"/>
       <c r="B3" s="241"/>
-      <c r="C3" s="258"/>
+      <c r="C3" s="252"/>
       <c r="D3" s="241"/>
       <c r="E3" s="241"/>
       <c r="F3" s="241"/>
@@ -5643,7 +5657,7 @@
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="241"/>
       <c r="B4" s="241"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="253" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="242"/>
@@ -5669,7 +5683,7 @@
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="241"/>
       <c r="B5" s="241"/>
-      <c r="C5" s="259"/>
+      <c r="C5" s="253"/>
       <c r="D5" s="242"/>
       <c r="E5" s="242"/>
       <c r="F5" s="242"/>
@@ -5717,7 +5731,7 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="241"/>
       <c r="B7" s="241"/>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="252" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="241"/>
@@ -5743,7 +5757,7 @@
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="241"/>
       <c r="B8" s="241"/>
-      <c r="C8" s="258"/>
+      <c r="C8" s="252"/>
       <c r="D8" s="241"/>
       <c r="E8" s="241"/>
       <c r="F8" s="241"/>
@@ -5767,114 +5781,114 @@
     <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="241"/>
       <c r="B9" s="241"/>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="254" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260"/>
-      <c r="L9" s="260"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="260"/>
-      <c r="O9" s="260"/>
-      <c r="P9" s="260"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="260"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="261"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="255"/>
     </row>
     <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="241"/>
       <c r="B10" s="241"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="262"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="262"/>
-      <c r="T10" s="262"/>
-      <c r="U10" s="262"/>
-      <c r="V10" s="263"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="256"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="256"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="257"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="252" t="s">
+      <c r="A11" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="252" t="s">
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="252" t="s">
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="253"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="252" t="s">
+      <c r="H11" s="259"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="252" t="s">
+      <c r="K11" s="259"/>
+      <c r="L11" s="260"/>
+      <c r="M11" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="253"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="252" t="s">
+      <c r="N11" s="259"/>
+      <c r="O11" s="260"/>
+      <c r="P11" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="253"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="252" t="s">
+      <c r="Q11" s="259"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="254"/>
+      <c r="T11" s="259"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="260"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="255"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="255"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="255"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="255"/>
-      <c r="T12" s="256"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="257"/>
+      <c r="A12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="263"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="262"/>
+      <c r="U12" s="262"/>
+      <c r="V12" s="263"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
@@ -6744,9 +6758,15 @@
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="D29" s="55">
+        <v>45602</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="53">
+        <v>10</v>
+      </c>
       <c r="G29" s="55"/>
       <c r="H29" s="53" t="s">
         <v>71</v>
@@ -7299,9 +7319,15 @@
       <c r="O40" s="59">
         <v>18</v>
       </c>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="64"/>
+      <c r="P40" s="62">
+        <v>45601</v>
+      </c>
+      <c r="Q40" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="R40" s="64">
+        <v>23</v>
+      </c>
       <c r="S40" s="45"/>
       <c r="T40" s="38"/>
       <c r="U40" s="38"/>
@@ -7341,9 +7367,15 @@
       <c r="O41" s="59">
         <v>18</v>
       </c>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="64"/>
+      <c r="P41" s="62">
+        <v>45602</v>
+      </c>
+      <c r="Q41" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="R41" s="64">
+        <v>22</v>
+      </c>
       <c r="S41" s="45"/>
       <c r="T41" s="38"/>
       <c r="U41" s="38"/>
@@ -7368,9 +7400,15 @@
       <c r="J42" s="67"/>
       <c r="K42" s="66"/>
       <c r="L42" s="66"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
+      <c r="M42" s="67">
+        <v>45601</v>
+      </c>
+      <c r="N42" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42" s="66">
+        <v>17</v>
+      </c>
       <c r="P42" s="67"/>
       <c r="Q42" s="66"/>
       <c r="R42" s="68"/>
@@ -7398,9 +7436,15 @@
       <c r="J43" s="67"/>
       <c r="K43" s="66"/>
       <c r="L43" s="66"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="68"/>
+      <c r="M43" s="67">
+        <v>45602</v>
+      </c>
+      <c r="N43" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="68">
+        <v>18</v>
+      </c>
       <c r="P43" s="67"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="68"/>
@@ -7476,9 +7520,13 @@
       <c r="D46" s="65"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="G46" s="67">
+        <v>45610</v>
+      </c>
       <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
+      <c r="I46" s="66">
+        <v>6</v>
+      </c>
       <c r="J46" s="67"/>
       <c r="K46" s="66"/>
       <c r="L46" s="66"/>
@@ -7500,9 +7548,15 @@
       <c r="D47" s="65"/>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
+      <c r="G47" s="67">
+        <v>45603</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="66">
+        <v>6</v>
+      </c>
       <c r="J47" s="69"/>
       <c r="K47" s="70"/>
       <c r="L47" s="66"/>
@@ -8263,11 +8317,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C7:V8"/>
-    <mergeCell ref="C4:V5"/>
-    <mergeCell ref="A2:B10"/>
-    <mergeCell ref="C9:V10"/>
-    <mergeCell ref="C2:V3"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="S11:V12"/>
@@ -8275,6 +8324,11 @@
     <mergeCell ref="J11:L12"/>
     <mergeCell ref="M11:O12"/>
     <mergeCell ref="P11:R12"/>
+    <mergeCell ref="C7:V8"/>
+    <mergeCell ref="C4:V5"/>
+    <mergeCell ref="A2:B10"/>
+    <mergeCell ref="C9:V10"/>
+    <mergeCell ref="C2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8286,8 +8340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8304,60 +8358,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264" t="s">
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -8368,47 +8422,47 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="265" t="s">
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="266" t="s">
+      <c r="B9" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="268"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="295"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="274" t="s">
+      <c r="B10" s="285" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -8426,7 +8480,7 @@
       <c r="G10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="280" t="s">
+      <c r="H10" s="288" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -8437,9 +8491,13 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="275"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="107">
+        <v>45601</v>
+      </c>
+      <c r="D11" s="49">
+        <v>28</v>
+      </c>
       <c r="E11" s="278"/>
       <c r="F11" s="107">
         <v>45329</v>
@@ -8447,7 +8505,7 @@
       <c r="G11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="281"/>
+      <c r="H11" s="289"/>
       <c r="I11" s="107">
         <v>45370</v>
       </c>
@@ -8456,7 +8514,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="275"/>
+      <c r="B12" s="286"/>
       <c r="C12" s="107"/>
       <c r="D12" s="49"/>
       <c r="E12" s="278"/>
@@ -8466,12 +8524,12 @@
       <c r="G12" s="49">
         <v>28</v>
       </c>
-      <c r="H12" s="281"/>
+      <c r="H12" s="289"/>
       <c r="I12" s="107"/>
       <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="275"/>
+      <c r="B13" s="286"/>
       <c r="C13" s="107"/>
       <c r="D13" s="49"/>
       <c r="E13" s="278"/>
@@ -8481,34 +8539,34 @@
       <c r="G13" s="49">
         <v>28</v>
       </c>
-      <c r="H13" s="281"/>
+      <c r="H13" s="289"/>
       <c r="I13" s="107"/>
       <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="275"/>
+      <c r="B14" s="286"/>
       <c r="C14" s="107"/>
       <c r="D14" s="49"/>
       <c r="E14" s="278"/>
       <c r="F14" s="107"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="281"/>
+      <c r="H14" s="289"/>
       <c r="I14" s="196"/>
       <c r="J14" s="78"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="275"/>
+      <c r="B15" s="286"/>
       <c r="C15" s="107"/>
       <c r="D15" s="49"/>
       <c r="E15" s="278"/>
       <c r="F15" s="107"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="281"/>
+      <c r="H15" s="289"/>
       <c r="I15" s="107"/>
       <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="275"/>
+      <c r="B16" s="286"/>
       <c r="C16" s="75"/>
       <c r="D16" s="74"/>
       <c r="E16" s="278"/>
@@ -8516,45 +8574,45 @@
       <c r="G16" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="281"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="75"/>
       <c r="J16" s="74"/>
     </row>
     <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="275"/>
+      <c r="B17" s="286"/>
       <c r="C17" s="75"/>
       <c r="D17" s="74"/>
       <c r="E17" s="278"/>
       <c r="F17" s="75"/>
       <c r="G17" s="74"/>
-      <c r="H17" s="281"/>
+      <c r="H17" s="289"/>
       <c r="I17" s="75"/>
       <c r="J17" s="74"/>
     </row>
     <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="275"/>
+      <c r="B18" s="286"/>
       <c r="C18" s="75"/>
       <c r="D18" s="74"/>
       <c r="E18" s="278"/>
       <c r="F18" s="75"/>
       <c r="G18" s="74"/>
-      <c r="H18" s="281"/>
+      <c r="H18" s="289"/>
       <c r="I18" s="75"/>
       <c r="J18" s="74"/>
     </row>
     <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="275"/>
+      <c r="B19" s="286"/>
       <c r="C19" s="75"/>
       <c r="D19" s="74"/>
       <c r="E19" s="278"/>
       <c r="F19" s="75"/>
       <c r="G19" s="74"/>
-      <c r="H19" s="281"/>
+      <c r="H19" s="289"/>
       <c r="I19" s="75"/>
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="275"/>
+      <c r="B20" s="286"/>
       <c r="C20" s="55"/>
       <c r="D20" s="53"/>
       <c r="E20" s="278"/>
@@ -8564,12 +8622,12 @@
       <c r="G20" s="53">
         <v>29</v>
       </c>
-      <c r="H20" s="281"/>
+      <c r="H20" s="289"/>
       <c r="I20" s="55"/>
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="275"/>
+      <c r="B21" s="286"/>
       <c r="C21" s="55"/>
       <c r="D21" s="53"/>
       <c r="E21" s="278"/>
@@ -8579,12 +8637,12 @@
       <c r="G21" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="281"/>
+      <c r="H21" s="289"/>
       <c r="I21" s="54"/>
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="275"/>
+      <c r="B22" s="286"/>
       <c r="C22" s="55"/>
       <c r="D22" s="53"/>
       <c r="E22" s="278"/>
@@ -8594,12 +8652,12 @@
       <c r="G22" s="53">
         <v>29</v>
       </c>
-      <c r="H22" s="281"/>
+      <c r="H22" s="289"/>
       <c r="I22" s="54"/>
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="275"/>
+      <c r="B23" s="286"/>
       <c r="C23" s="54"/>
       <c r="D23" s="53"/>
       <c r="E23" s="278"/>
@@ -8609,12 +8667,12 @@
       <c r="G23" s="53">
         <v>29</v>
       </c>
-      <c r="H23" s="281"/>
+      <c r="H23" s="289"/>
       <c r="I23" s="54"/>
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="275"/>
+      <c r="B24" s="286"/>
       <c r="C24" s="79"/>
       <c r="D24" s="80"/>
       <c r="E24" s="278"/>
@@ -8624,34 +8682,34 @@
       <c r="G24" s="80">
         <v>29</v>
       </c>
-      <c r="H24" s="281"/>
+      <c r="H24" s="289"/>
       <c r="I24" s="79"/>
       <c r="J24" s="80"/>
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="275"/>
+      <c r="B25" s="286"/>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
       <c r="E25" s="278"/>
       <c r="F25" s="108"/>
       <c r="G25" s="80"/>
-      <c r="H25" s="281"/>
+      <c r="H25" s="289"/>
       <c r="I25" s="79"/>
       <c r="J25" s="80"/>
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="276"/>
+      <c r="B26" s="287"/>
       <c r="C26" s="79"/>
       <c r="D26" s="80"/>
       <c r="E26" s="279"/>
       <c r="F26" s="108"/>
       <c r="G26" s="80"/>
-      <c r="H26" s="282"/>
+      <c r="H26" s="290"/>
       <c r="I26" s="79"/>
       <c r="J26" s="80"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="269" t="s">
+      <c r="B27" s="271" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -8660,7 +8718,7 @@
       <c r="D27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="270" t="s">
+      <c r="E27" s="281" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -8669,7 +8727,7 @@
       <c r="G27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="271" t="s">
+      <c r="H27" s="282" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="22" t="s">
@@ -8680,79 +8738,79 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="269"/>
+      <c r="B28" s="271"/>
       <c r="C28" s="84"/>
       <c r="D28" s="64"/>
-      <c r="E28" s="270"/>
+      <c r="E28" s="281"/>
       <c r="F28" s="84"/>
       <c r="G28" s="64"/>
-      <c r="H28" s="272"/>
+      <c r="H28" s="283"/>
       <c r="I28" s="84"/>
       <c r="J28" s="64"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="269"/>
+      <c r="B29" s="271"/>
       <c r="C29" s="84"/>
       <c r="D29" s="64"/>
-      <c r="E29" s="270"/>
+      <c r="E29" s="281"/>
       <c r="F29" s="84"/>
       <c r="G29" s="64"/>
-      <c r="H29" s="272"/>
+      <c r="H29" s="283"/>
       <c r="I29" s="84"/>
       <c r="J29" s="64"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="269"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="84"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="270"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="84"/>
       <c r="G30" s="64"/>
-      <c r="H30" s="272"/>
+      <c r="H30" s="283"/>
       <c r="I30" s="84"/>
       <c r="J30" s="64"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="269"/>
+      <c r="B31" s="271"/>
       <c r="C31" s="83"/>
       <c r="D31" s="76"/>
-      <c r="E31" s="270"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="83"/>
       <c r="G31" s="76"/>
-      <c r="H31" s="272"/>
+      <c r="H31" s="283"/>
       <c r="I31" s="83"/>
       <c r="J31" s="76"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="269"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="83"/>
       <c r="D32" s="76"/>
-      <c r="E32" s="270"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="83"/>
       <c r="G32" s="76"/>
-      <c r="H32" s="272"/>
+      <c r="H32" s="283"/>
       <c r="I32" s="83"/>
       <c r="J32" s="76"/>
     </row>
     <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="269"/>
+      <c r="B33" s="271"/>
       <c r="C33" s="83"/>
       <c r="D33" s="76"/>
-      <c r="E33" s="270"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="83"/>
       <c r="G33" s="76"/>
-      <c r="H33" s="272"/>
+      <c r="H33" s="283"/>
       <c r="I33" s="83"/>
       <c r="J33" s="76"/>
     </row>
     <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="269"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="81"/>
       <c r="D34" s="82"/>
-      <c r="E34" s="270"/>
+      <c r="E34" s="281"/>
       <c r="F34" s="81"/>
       <c r="G34" s="82"/>
-      <c r="H34" s="272"/>
+      <c r="H34" s="283"/>
       <c r="I34" s="81">
         <v>45491</v>
       </c>
@@ -8761,13 +8819,13 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="269"/>
+      <c r="B35" s="271"/>
       <c r="C35" s="81"/>
       <c r="D35" s="82"/>
-      <c r="E35" s="270"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="81"/>
       <c r="G35" s="82"/>
-      <c r="H35" s="272"/>
+      <c r="H35" s="283"/>
       <c r="I35" s="81">
         <v>45512</v>
       </c>
@@ -8776,51 +8834,51 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="269"/>
+      <c r="B36" s="271"/>
       <c r="C36" s="88"/>
       <c r="D36" s="89"/>
-      <c r="E36" s="270"/>
+      <c r="E36" s="281"/>
       <c r="F36" s="54"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="272"/>
+      <c r="H36" s="283"/>
       <c r="I36" s="54"/>
       <c r="J36" s="53"/>
     </row>
     <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="269"/>
+      <c r="B37" s="271"/>
       <c r="C37" s="90"/>
       <c r="D37" s="91"/>
-      <c r="E37" s="270"/>
+      <c r="E37" s="281"/>
       <c r="F37" s="79"/>
       <c r="G37" s="80"/>
-      <c r="H37" s="272"/>
+      <c r="H37" s="283"/>
       <c r="I37" s="79"/>
       <c r="J37" s="80"/>
     </row>
     <row r="38" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="269"/>
+      <c r="B38" s="271"/>
       <c r="C38" s="90"/>
       <c r="D38" s="91"/>
-      <c r="E38" s="270"/>
+      <c r="E38" s="281"/>
       <c r="F38" s="79"/>
       <c r="G38" s="80"/>
-      <c r="H38" s="272"/>
+      <c r="H38" s="283"/>
       <c r="I38" s="79"/>
       <c r="J38" s="80"/>
     </row>
     <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="269"/>
+      <c r="B39" s="271"/>
       <c r="C39" s="90"/>
       <c r="D39" s="91"/>
-      <c r="E39" s="270"/>
+      <c r="E39" s="281"/>
       <c r="F39" s="79"/>
       <c r="G39" s="80"/>
-      <c r="H39" s="273"/>
+      <c r="H39" s="284"/>
       <c r="I39" s="79"/>
       <c r="J39" s="80"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="283" t="s">
+      <c r="B40" s="264" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -8829,7 +8887,7 @@
       <c r="D40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="288" t="s">
+      <c r="E40" s="269" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -8838,7 +8896,7 @@
       <c r="G40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="286" t="s">
+      <c r="H40" s="267" t="s">
         <v>31</v>
       </c>
       <c r="I40" s="22" t="s">
@@ -8849,142 +8907,142 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="284"/>
+      <c r="B41" s="265"/>
       <c r="C41" s="62">
         <v>45327</v>
       </c>
       <c r="D41" s="59">
         <v>28</v>
       </c>
-      <c r="E41" s="289"/>
+      <c r="E41" s="270"/>
       <c r="F41" s="62">
         <v>45362</v>
       </c>
       <c r="G41" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="287"/>
+      <c r="H41" s="268"/>
       <c r="I41" s="60"/>
       <c r="J41" s="59"/>
     </row>
     <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="284"/>
+      <c r="B42" s="265"/>
       <c r="C42" s="62">
         <v>45405</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="289"/>
+      <c r="E42" s="270"/>
       <c r="F42" s="62">
         <v>45411</v>
       </c>
       <c r="G42" s="59">
         <v>28</v>
       </c>
-      <c r="H42" s="287"/>
+      <c r="H42" s="268"/>
       <c r="I42" s="60"/>
       <c r="J42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="284"/>
+      <c r="B43" s="265"/>
       <c r="C43" s="62"/>
       <c r="D43" s="59"/>
-      <c r="E43" s="289"/>
+      <c r="E43" s="270"/>
       <c r="F43" s="62"/>
       <c r="G43" s="59"/>
-      <c r="H43" s="287"/>
+      <c r="H43" s="268"/>
       <c r="I43" s="60"/>
       <c r="J43" s="59"/>
     </row>
     <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="284"/>
+      <c r="B44" s="265"/>
       <c r="C44" s="62"/>
       <c r="D44" s="59"/>
-      <c r="E44" s="289"/>
+      <c r="E44" s="270"/>
       <c r="F44" s="62"/>
       <c r="G44" s="59"/>
-      <c r="H44" s="287"/>
+      <c r="H44" s="268"/>
       <c r="I44" s="60"/>
       <c r="J44" s="59"/>
     </row>
     <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="284"/>
+      <c r="B45" s="265"/>
       <c r="C45" s="75"/>
       <c r="D45" s="74"/>
-      <c r="E45" s="289"/>
+      <c r="E45" s="270"/>
       <c r="F45" s="75"/>
       <c r="G45" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="287"/>
+      <c r="H45" s="268"/>
       <c r="I45" s="73"/>
       <c r="J45" s="74"/>
     </row>
     <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="284"/>
+      <c r="B46" s="265"/>
       <c r="C46" s="75"/>
       <c r="D46" s="74"/>
-      <c r="E46" s="289"/>
+      <c r="E46" s="270"/>
       <c r="F46" s="75"/>
       <c r="G46" s="74"/>
-      <c r="H46" s="287"/>
+      <c r="H46" s="268"/>
       <c r="I46" s="73"/>
       <c r="J46" s="74"/>
     </row>
     <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="284"/>
+      <c r="B47" s="265"/>
       <c r="C47" s="75"/>
       <c r="D47" s="74"/>
-      <c r="E47" s="289"/>
+      <c r="E47" s="270"/>
       <c r="F47" s="75"/>
       <c r="G47" s="74"/>
-      <c r="H47" s="287"/>
+      <c r="H47" s="268"/>
       <c r="I47" s="73"/>
       <c r="J47" s="74"/>
     </row>
     <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="284"/>
+      <c r="B48" s="265"/>
       <c r="C48" s="180"/>
       <c r="D48" s="82"/>
-      <c r="E48" s="289"/>
+      <c r="E48" s="270"/>
       <c r="F48" s="180">
         <v>45491</v>
       </c>
       <c r="G48" s="82">
         <v>29</v>
       </c>
-      <c r="H48" s="287"/>
+      <c r="H48" s="268"/>
       <c r="I48" s="81"/>
       <c r="J48" s="82"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="284"/>
+      <c r="B49" s="265"/>
       <c r="C49" s="180"/>
       <c r="D49" s="82"/>
-      <c r="E49" s="289"/>
+      <c r="E49" s="270"/>
       <c r="F49" s="207">
         <v>45512</v>
       </c>
       <c r="G49" s="208">
         <v>29</v>
       </c>
-      <c r="H49" s="287"/>
+      <c r="H49" s="268"/>
       <c r="I49" s="81"/>
       <c r="J49" s="82"/>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="284"/>
+      <c r="B50" s="265"/>
       <c r="C50" s="181"/>
       <c r="D50" s="89"/>
-      <c r="E50" s="289"/>
+      <c r="E50" s="270"/>
       <c r="F50" s="209">
         <v>45517</v>
       </c>
       <c r="G50" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="287"/>
+      <c r="H50" s="268"/>
       <c r="I50" s="88"/>
       <c r="J50" s="89"/>
     </row>
@@ -8992,48 +9050,52 @@
       <c r="A51" s="175">
         <v>45200</v>
       </c>
-      <c r="B51" s="284"/>
+      <c r="B51" s="265"/>
       <c r="C51" s="182"/>
       <c r="D51" s="91"/>
-      <c r="E51" s="289"/>
+      <c r="E51" s="270"/>
       <c r="F51" s="182">
         <v>45524</v>
       </c>
       <c r="G51" s="91">
         <v>29</v>
       </c>
-      <c r="H51" s="287"/>
+      <c r="H51" s="268"/>
       <c r="I51" s="90"/>
       <c r="J51" s="91"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="284"/>
+      <c r="B52" s="265"/>
       <c r="C52" s="182"/>
       <c r="D52" s="91"/>
-      <c r="E52" s="289"/>
+      <c r="E52" s="270"/>
       <c r="F52" s="182">
         <v>45589</v>
       </c>
       <c r="G52" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="287"/>
+      <c r="H52" s="268"/>
       <c r="I52" s="90"/>
       <c r="J52" s="91"/>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="284"/>
+      <c r="B53" s="265"/>
       <c r="C53" s="182"/>
       <c r="D53" s="91"/>
-      <c r="E53" s="289"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="287"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="182">
+        <v>45603</v>
+      </c>
+      <c r="G53" s="91">
+        <v>18</v>
+      </c>
+      <c r="H53" s="268"/>
       <c r="I53" s="90"/>
       <c r="J53" s="91"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="290" t="s">
+      <c r="B54" s="272" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -9042,7 +9104,7 @@
       <c r="D54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="291" t="s">
+      <c r="E54" s="273" t="s">
         <v>34</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -9051,7 +9113,7 @@
       <c r="G54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="292" t="s">
+      <c r="H54" s="274" t="s">
         <v>35</v>
       </c>
       <c r="I54" s="22" t="s">
@@ -9062,170 +9124,170 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="290"/>
+      <c r="B55" s="272"/>
       <c r="C55" s="60">
         <v>45327</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="291"/>
+      <c r="E55" s="273"/>
       <c r="F55" s="60"/>
       <c r="G55" s="59"/>
-      <c r="H55" s="293"/>
+      <c r="H55" s="275"/>
       <c r="I55" s="60"/>
       <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="290"/>
+      <c r="B56" s="272"/>
       <c r="C56" s="60">
         <v>45350</v>
       </c>
       <c r="D56" s="59">
         <v>28</v>
       </c>
-      <c r="E56" s="291"/>
+      <c r="E56" s="273"/>
       <c r="F56" s="60"/>
       <c r="G56" s="59"/>
-      <c r="H56" s="293"/>
+      <c r="H56" s="275"/>
       <c r="I56" s="60"/>
       <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="290"/>
+      <c r="B57" s="272"/>
       <c r="C57" s="60">
         <v>45393</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="291"/>
+      <c r="E57" s="273"/>
       <c r="F57" s="60"/>
       <c r="G57" s="59"/>
-      <c r="H57" s="293"/>
+      <c r="H57" s="275"/>
       <c r="I57" s="60"/>
       <c r="J57" s="59"/>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="290"/>
+      <c r="B58" s="272"/>
       <c r="C58" s="60"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="291"/>
+      <c r="E58" s="273"/>
       <c r="F58" s="60"/>
       <c r="G58" s="59"/>
-      <c r="H58" s="293"/>
+      <c r="H58" s="275"/>
       <c r="I58" s="60"/>
       <c r="J58" s="59"/>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="290"/>
+      <c r="B59" s="272"/>
       <c r="C59" s="73"/>
       <c r="D59" s="74"/>
-      <c r="E59" s="291"/>
+      <c r="E59" s="273"/>
       <c r="F59" s="73"/>
       <c r="G59" s="74"/>
-      <c r="H59" s="293"/>
+      <c r="H59" s="275"/>
       <c r="I59" s="73"/>
       <c r="J59" s="74"/>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="290"/>
+      <c r="B60" s="272"/>
       <c r="C60" s="73"/>
       <c r="D60" s="74"/>
-      <c r="E60" s="291"/>
+      <c r="E60" s="273"/>
       <c r="F60" s="73"/>
       <c r="G60" s="74"/>
-      <c r="H60" s="293"/>
+      <c r="H60" s="275"/>
       <c r="I60" s="73"/>
       <c r="J60" s="74"/>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="290"/>
+      <c r="B61" s="272"/>
       <c r="C61" s="73"/>
       <c r="D61" s="74"/>
-      <c r="E61" s="291"/>
+      <c r="E61" s="273"/>
       <c r="F61" s="73"/>
       <c r="G61" s="74"/>
-      <c r="H61" s="293"/>
+      <c r="H61" s="275"/>
       <c r="I61" s="73"/>
       <c r="J61" s="74"/>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="290"/>
+      <c r="B62" s="272"/>
       <c r="C62" s="81">
         <v>45485</v>
       </c>
       <c r="D62" s="82">
         <v>87</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="273"/>
       <c r="F62" s="81"/>
       <c r="G62" s="82"/>
-      <c r="H62" s="293"/>
+      <c r="H62" s="275"/>
       <c r="I62" s="81"/>
       <c r="J62" s="82"/>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="290"/>
+      <c r="B63" s="272"/>
       <c r="C63" s="81"/>
       <c r="D63" s="82"/>
-      <c r="E63" s="291"/>
+      <c r="E63" s="273"/>
       <c r="F63" s="81"/>
       <c r="G63" s="82"/>
-      <c r="H63" s="293"/>
+      <c r="H63" s="275"/>
       <c r="I63" s="81"/>
       <c r="J63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="290"/>
+      <c r="B64" s="272"/>
       <c r="C64" s="88"/>
       <c r="D64" s="89"/>
-      <c r="E64" s="291"/>
+      <c r="E64" s="273"/>
       <c r="F64" s="88"/>
       <c r="G64" s="89"/>
-      <c r="H64" s="293"/>
+      <c r="H64" s="275"/>
       <c r="I64" s="88"/>
       <c r="J64" s="89"/>
     </row>
     <row r="65" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="290"/>
+      <c r="B65" s="272"/>
       <c r="C65" s="90">
         <v>45561</v>
       </c>
       <c r="D65" s="91">
         <v>84</v>
       </c>
-      <c r="E65" s="291"/>
+      <c r="E65" s="273"/>
       <c r="F65" s="90"/>
       <c r="G65" s="91"/>
-      <c r="H65" s="293"/>
+      <c r="H65" s="275"/>
       <c r="I65" s="90"/>
       <c r="J65" s="91"/>
     </row>
     <row r="66" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="290"/>
+      <c r="B66" s="272"/>
       <c r="C66" s="90"/>
       <c r="D66" s="91"/>
-      <c r="E66" s="291"/>
+      <c r="E66" s="273"/>
       <c r="F66" s="90"/>
       <c r="G66" s="91"/>
-      <c r="H66" s="293"/>
+      <c r="H66" s="275"/>
       <c r="I66" s="90"/>
       <c r="J66" s="91"/>
     </row>
     <row r="67" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="290"/>
+      <c r="B67" s="272"/>
       <c r="C67" s="90"/>
       <c r="D67" s="91"/>
-      <c r="E67" s="291"/>
+      <c r="E67" s="273"/>
       <c r="F67" s="90"/>
       <c r="G67" s="91"/>
-      <c r="H67" s="294"/>
+      <c r="H67" s="276"/>
       <c r="I67" s="90"/>
       <c r="J67" s="91"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="269" t="s">
+      <c r="B68" s="271" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -9234,7 +9296,7 @@
       <c r="D68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="286" t="s">
+      <c r="E68" s="267" t="s">
         <v>37</v>
       </c>
       <c r="F68" s="21" t="s">
@@ -9254,10 +9316,10 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="269"/>
+      <c r="B69" s="271"/>
       <c r="C69" s="60"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="287"/>
+      <c r="E69" s="268"/>
       <c r="F69" s="60"/>
       <c r="G69" s="59"/>
       <c r="H69" s="278"/>
@@ -9265,10 +9327,10 @@
       <c r="J69" s="59"/>
     </row>
     <row r="70" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="269"/>
+      <c r="B70" s="271"/>
       <c r="C70" s="60"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="287"/>
+      <c r="E70" s="268"/>
       <c r="F70" s="60"/>
       <c r="G70" s="59"/>
       <c r="H70" s="278"/>
@@ -9276,10 +9338,10 @@
       <c r="J70" s="59"/>
     </row>
     <row r="71" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="269"/>
+      <c r="B71" s="271"/>
       <c r="C71" s="92"/>
       <c r="D71" s="93"/>
-      <c r="E71" s="287"/>
+      <c r="E71" s="268"/>
       <c r="F71" s="92"/>
       <c r="G71" s="93"/>
       <c r="H71" s="278"/>
@@ -9287,10 +9349,10 @@
       <c r="J71" s="93"/>
     </row>
     <row r="72" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="269"/>
+      <c r="B72" s="271"/>
       <c r="C72" s="60"/>
       <c r="D72" s="59"/>
-      <c r="E72" s="287"/>
+      <c r="E72" s="268"/>
       <c r="F72" s="60"/>
       <c r="G72" s="59"/>
       <c r="H72" s="278"/>
@@ -9298,10 +9360,10 @@
       <c r="J72" s="59"/>
     </row>
     <row r="73" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="269"/>
+      <c r="B73" s="271"/>
       <c r="C73" s="60"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="287"/>
+      <c r="E73" s="268"/>
       <c r="F73" s="60"/>
       <c r="G73" s="59"/>
       <c r="H73" s="278"/>
@@ -9309,14 +9371,14 @@
       <c r="J73" s="59"/>
     </row>
     <row r="74" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="269"/>
+      <c r="B74" s="271"/>
       <c r="C74" s="48">
         <v>45562</v>
       </c>
       <c r="D74" s="41">
         <v>28</v>
       </c>
-      <c r="E74" s="287"/>
+      <c r="E74" s="268"/>
       <c r="F74" s="48"/>
       <c r="G74" s="41"/>
       <c r="H74" s="278"/>
@@ -9324,10 +9386,10 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="269"/>
+      <c r="B75" s="271"/>
       <c r="C75" s="48"/>
       <c r="D75" s="41"/>
-      <c r="E75" s="287"/>
+      <c r="E75" s="268"/>
       <c r="F75" s="48"/>
       <c r="G75" s="41"/>
       <c r="H75" s="278"/>
@@ -9335,10 +9397,10 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="269"/>
+      <c r="B76" s="271"/>
       <c r="C76" s="48"/>
       <c r="D76" s="41"/>
-      <c r="E76" s="287"/>
+      <c r="E76" s="268"/>
       <c r="F76" s="48"/>
       <c r="G76" s="41"/>
       <c r="H76" s="278"/>
@@ -9346,10 +9408,10 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="269"/>
+      <c r="B77" s="271"/>
       <c r="C77" s="48"/>
       <c r="D77" s="41"/>
-      <c r="E77" s="287"/>
+      <c r="E77" s="268"/>
       <c r="F77" s="48"/>
       <c r="G77" s="41"/>
       <c r="H77" s="278"/>
@@ -9357,10 +9419,10 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="269"/>
+      <c r="B78" s="271"/>
       <c r="C78" s="54"/>
       <c r="D78" s="53"/>
-      <c r="E78" s="287"/>
+      <c r="E78" s="268"/>
       <c r="F78" s="54"/>
       <c r="G78" s="53"/>
       <c r="H78" s="278"/>
@@ -9368,10 +9430,10 @@
       <c r="J78" s="53"/>
     </row>
     <row r="79" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="269"/>
+      <c r="B79" s="271"/>
       <c r="C79" s="54"/>
       <c r="D79" s="53"/>
-      <c r="E79" s="287"/>
+      <c r="E79" s="268"/>
       <c r="F79" s="54"/>
       <c r="G79" s="53"/>
       <c r="H79" s="278"/>
@@ -9379,12 +9441,12 @@
       <c r="J79" s="53"/>
     </row>
     <row r="80" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="283" t="s">
+      <c r="B80" s="264" t="s">
         <v>38</v>
       </c>
       <c r="C80" s="88"/>
       <c r="D80" s="89"/>
-      <c r="E80" s="287"/>
+      <c r="E80" s="268"/>
       <c r="F80" s="88"/>
       <c r="G80" s="89"/>
       <c r="H80" s="278"/>
@@ -9392,10 +9454,10 @@
       <c r="J80" s="89"/>
     </row>
     <row r="81" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="284"/>
+      <c r="B81" s="265"/>
       <c r="C81" s="86"/>
       <c r="D81" s="87"/>
-      <c r="E81" s="287"/>
+      <c r="E81" s="268"/>
       <c r="F81" s="86"/>
       <c r="G81" s="87"/>
       <c r="H81" s="278"/>
@@ -9403,10 +9465,10 @@
       <c r="J81" s="87"/>
     </row>
     <row r="82" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="284"/>
+      <c r="B82" s="265"/>
       <c r="C82" s="86"/>
       <c r="D82" s="87"/>
-      <c r="E82" s="287"/>
+      <c r="E82" s="268"/>
       <c r="F82" s="86"/>
       <c r="G82" s="87"/>
       <c r="H82" s="278"/>
@@ -9414,10 +9476,10 @@
       <c r="J82" s="87"/>
     </row>
     <row r="83" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="284"/>
+      <c r="B83" s="265"/>
       <c r="C83" s="86"/>
       <c r="D83" s="87"/>
-      <c r="E83" s="287"/>
+      <c r="E83" s="268"/>
       <c r="F83" s="86"/>
       <c r="G83" s="87"/>
       <c r="H83" s="278"/>
@@ -9425,10 +9487,10 @@
       <c r="J83" s="87"/>
     </row>
     <row r="84" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="285"/>
+      <c r="B84" s="266"/>
       <c r="C84" s="86"/>
       <c r="D84" s="87"/>
-      <c r="E84" s="295"/>
+      <c r="E84" s="280"/>
       <c r="F84" s="86"/>
       <c r="G84" s="87"/>
       <c r="H84" s="279"/>
@@ -9437,6 +9499,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B27:B39"/>
+    <mergeCell ref="E27:E39"/>
+    <mergeCell ref="H27:H39"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="E10:E26"/>
+    <mergeCell ref="H10:H26"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="H40:H53"/>
     <mergeCell ref="E40:E53"/>
@@ -9447,17 +9520,6 @@
     <mergeCell ref="H54:H67"/>
     <mergeCell ref="H68:H84"/>
     <mergeCell ref="E68:E84"/>
-    <mergeCell ref="B27:B39"/>
-    <mergeCell ref="E27:E39"/>
-    <mergeCell ref="H27:H39"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="E10:E26"/>
-    <mergeCell ref="H10:H26"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B2:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9469,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9488,68 +9550,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264" t="s">
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -9562,31 +9624,31 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="265" t="s">
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -9594,17 +9656,17 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="266" t="s">
+      <c r="B9" s="293" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="268"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="295"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -9612,7 +9674,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="280" t="s">
+      <c r="B10" s="288" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -9630,7 +9692,7 @@
       <c r="G10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="286" t="s">
+      <c r="H10" s="267" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="31" t="s">
@@ -9641,7 +9703,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="281"/>
+      <c r="B11" s="289"/>
       <c r="C11" s="120">
         <v>45343</v>
       </c>
@@ -9655,7 +9717,7 @@
       <c r="G11" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="287"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="120">
         <v>45370</v>
       </c>
@@ -9664,7 +9726,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="281"/>
+      <c r="B12" s="289"/>
       <c r="C12" s="120">
         <v>45369</v>
       </c>
@@ -9678,12 +9740,12 @@
       <c r="G12" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="287"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="120"/>
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="281"/>
+      <c r="B13" s="289"/>
       <c r="C13" s="120"/>
       <c r="D13" s="112"/>
       <c r="E13" s="298"/>
@@ -9693,12 +9755,12 @@
       <c r="G13" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="287"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="120"/>
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="281"/>
+      <c r="B14" s="289"/>
       <c r="C14" s="120"/>
       <c r="D14" s="112"/>
       <c r="E14" s="298"/>
@@ -9708,12 +9770,12 @@
       <c r="G14" s="112">
         <v>42</v>
       </c>
-      <c r="H14" s="287"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="120"/>
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="281"/>
+      <c r="B15" s="289"/>
       <c r="C15" s="125"/>
       <c r="D15" s="114" t="s">
         <v>90</v>
@@ -9725,12 +9787,12 @@
       <c r="G15" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="287"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="118"/>
       <c r="J15" s="114"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="281"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="125"/>
       <c r="D16" s="114"/>
       <c r="E16" s="298"/>
@@ -9740,12 +9802,12 @@
       <c r="G16" s="114">
         <v>42</v>
       </c>
-      <c r="H16" s="287"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="118"/>
       <c r="J16" s="114"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="281"/>
+      <c r="B17" s="289"/>
       <c r="C17" s="125"/>
       <c r="D17" s="114"/>
       <c r="E17" s="298"/>
@@ -9753,12 +9815,12 @@
       <c r="G17" s="114">
         <v>42</v>
       </c>
-      <c r="H17" s="287"/>
+      <c r="H17" s="268"/>
       <c r="I17" s="118"/>
       <c r="J17" s="114"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="281"/>
+      <c r="B18" s="289"/>
       <c r="C18" s="125"/>
       <c r="D18" s="114"/>
       <c r="E18" s="298"/>
@@ -9768,12 +9830,12 @@
       <c r="G18" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="287"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="118"/>
       <c r="J18" s="114"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="281"/>
+      <c r="B19" s="289"/>
       <c r="C19" s="131">
         <v>45496</v>
       </c>
@@ -9787,12 +9849,12 @@
       <c r="G19" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="287"/>
+      <c r="H19" s="268"/>
       <c r="I19" s="126"/>
       <c r="J19" s="115"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="281"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="131">
         <v>45519</v>
       </c>
@@ -9806,12 +9868,12 @@
       <c r="G20" s="115">
         <v>42</v>
       </c>
-      <c r="H20" s="287"/>
+      <c r="H20" s="268"/>
       <c r="I20" s="126"/>
       <c r="J20" s="115"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="281"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="131">
         <v>45597</v>
       </c>
@@ -9821,78 +9883,78 @@
       <c r="E21" s="298"/>
       <c r="F21" s="131"/>
       <c r="G21" s="115"/>
-      <c r="H21" s="287"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="126"/>
       <c r="J21" s="115"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="281"/>
+      <c r="B22" s="289"/>
       <c r="C22" s="131"/>
       <c r="D22" s="115"/>
       <c r="E22" s="298"/>
       <c r="F22" s="131"/>
       <c r="G22" s="115"/>
-      <c r="H22" s="287"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="126"/>
       <c r="J22" s="115"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="281"/>
+      <c r="B23" s="289"/>
       <c r="C23" s="131"/>
       <c r="D23" s="115"/>
       <c r="E23" s="298"/>
       <c r="F23" s="131"/>
       <c r="G23" s="115"/>
-      <c r="H23" s="287"/>
+      <c r="H23" s="268"/>
       <c r="I23" s="126"/>
       <c r="J23" s="115"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="281"/>
+      <c r="B24" s="289"/>
       <c r="C24" s="132"/>
       <c r="D24" s="117"/>
       <c r="E24" s="298"/>
       <c r="F24" s="131"/>
       <c r="G24" s="115"/>
-      <c r="H24" s="287"/>
+      <c r="H24" s="268"/>
       <c r="I24" s="127"/>
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="281"/>
+      <c r="B25" s="289"/>
       <c r="C25" s="132"/>
       <c r="D25" s="117"/>
       <c r="E25" s="298"/>
       <c r="F25" s="132"/>
       <c r="G25" s="117"/>
-      <c r="H25" s="287"/>
+      <c r="H25" s="268"/>
       <c r="I25" s="127"/>
       <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="281"/>
+      <c r="B26" s="289"/>
       <c r="C26" s="132"/>
       <c r="D26" s="117"/>
       <c r="E26" s="298"/>
       <c r="F26" s="132"/>
       <c r="G26" s="117"/>
-      <c r="H26" s="287"/>
+      <c r="H26" s="268"/>
       <c r="I26" s="116"/>
       <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="281"/>
+      <c r="B27" s="289"/>
       <c r="C27" s="132"/>
       <c r="D27" s="117"/>
       <c r="E27" s="298"/>
       <c r="F27" s="127"/>
       <c r="G27" s="117"/>
-      <c r="H27" s="287"/>
+      <c r="H27" s="268"/>
       <c r="I27" s="116"/>
       <c r="J27" s="117"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="272" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -9910,7 +9972,7 @@
       <c r="G28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="271" t="s">
+      <c r="H28" s="282" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="32" t="s">
@@ -9921,13 +9983,13 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="290"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="119"/>
       <c r="D29" s="112"/>
       <c r="E29" s="300"/>
       <c r="F29" s="120"/>
       <c r="G29" s="112"/>
-      <c r="H29" s="272"/>
+      <c r="H29" s="283"/>
       <c r="I29" s="120">
         <v>45362</v>
       </c>
@@ -9936,13 +9998,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="290"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="119"/>
       <c r="D30" s="112"/>
       <c r="E30" s="300"/>
       <c r="F30" s="121"/>
       <c r="G30" s="122"/>
-      <c r="H30" s="272"/>
+      <c r="H30" s="283"/>
       <c r="I30" s="120">
         <v>45404</v>
       </c>
@@ -9951,13 +10013,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="290"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="119"/>
       <c r="D31" s="112"/>
       <c r="E31" s="300"/>
       <c r="F31" s="121"/>
       <c r="G31" s="122"/>
-      <c r="H31" s="272"/>
+      <c r="H31" s="283"/>
       <c r="I31" s="120">
         <v>45411</v>
       </c>
@@ -9966,73 +10028,73 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="290"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="118"/>
       <c r="D32" s="114"/>
       <c r="E32" s="300"/>
       <c r="F32" s="123"/>
       <c r="G32" s="124"/>
-      <c r="H32" s="272"/>
+      <c r="H32" s="283"/>
       <c r="I32" s="125"/>
       <c r="J32" s="114"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="290"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="118"/>
       <c r="D33" s="114"/>
       <c r="E33" s="300"/>
       <c r="F33" s="123"/>
       <c r="G33" s="124"/>
-      <c r="H33" s="272"/>
+      <c r="H33" s="283"/>
       <c r="I33" s="125"/>
       <c r="J33" s="114"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="290"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="118"/>
       <c r="D34" s="114"/>
       <c r="E34" s="300"/>
       <c r="F34" s="123"/>
       <c r="G34" s="124"/>
-      <c r="H34" s="272"/>
+      <c r="H34" s="283"/>
       <c r="I34" s="125"/>
       <c r="J34" s="114"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="290"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="126"/>
       <c r="D35" s="115"/>
       <c r="E35" s="300"/>
       <c r="F35" s="126"/>
       <c r="G35" s="115"/>
-      <c r="H35" s="272"/>
+      <c r="H35" s="283"/>
       <c r="I35" s="126"/>
       <c r="J35" s="115"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="290"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="126"/>
       <c r="D36" s="115"/>
       <c r="E36" s="300"/>
       <c r="F36" s="126"/>
       <c r="G36" s="115"/>
-      <c r="H36" s="272"/>
+      <c r="H36" s="283"/>
       <c r="I36" s="126"/>
       <c r="J36" s="115"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="290"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="126"/>
       <c r="D37" s="115"/>
       <c r="E37" s="300"/>
       <c r="F37" s="126"/>
       <c r="G37" s="115"/>
-      <c r="H37" s="272"/>
+      <c r="H37" s="283"/>
       <c r="I37" s="126"/>
       <c r="J37" s="115"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="290"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="127"/>
       <c r="D38" s="117"/>
       <c r="E38" s="300"/>
@@ -10042,29 +10104,29 @@
       <c r="G38" s="117">
         <v>41</v>
       </c>
-      <c r="H38" s="272"/>
+      <c r="H38" s="283"/>
       <c r="I38" s="127"/>
       <c r="J38" s="117"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="290"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="127"/>
       <c r="D39" s="117"/>
       <c r="E39" s="300"/>
       <c r="F39" s="127"/>
       <c r="G39" s="117"/>
-      <c r="H39" s="272"/>
+      <c r="H39" s="283"/>
       <c r="I39" s="127"/>
       <c r="J39" s="117"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="290"/>
+      <c r="B40" s="272"/>
       <c r="C40" s="127"/>
       <c r="D40" s="117"/>
       <c r="E40" s="300"/>
       <c r="F40" s="127"/>
       <c r="G40" s="117"/>
-      <c r="H40" s="273"/>
+      <c r="H40" s="284"/>
       <c r="I40" s="127"/>
       <c r="J40" s="117"/>
     </row>
@@ -10078,7 +10140,7 @@
       <c r="D41" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="286" t="s">
+      <c r="E41" s="267" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="32" t="s">
@@ -10087,7 +10149,7 @@
       <c r="G41" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="288" t="s">
+      <c r="H41" s="269" t="s">
         <v>31</v>
       </c>
       <c r="I41" s="32" t="s">
@@ -10105,14 +10167,14 @@
       <c r="D42" s="158">
         <v>41</v>
       </c>
-      <c r="E42" s="287"/>
+      <c r="E42" s="268"/>
       <c r="F42" s="179">
         <v>45328</v>
       </c>
       <c r="G42" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="289"/>
+      <c r="H42" s="270"/>
       <c r="I42" s="128">
         <v>45595</v>
       </c>
@@ -10128,14 +10190,14 @@
       <c r="D43" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="287"/>
+      <c r="E43" s="268"/>
       <c r="F43" s="179">
         <v>45356</v>
       </c>
       <c r="G43" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="289"/>
+      <c r="H43" s="270"/>
       <c r="I43" s="119">
         <v>45595</v>
       </c>
@@ -10147,14 +10209,14 @@
       <c r="B44" s="306"/>
       <c r="C44" s="120"/>
       <c r="D44" s="158"/>
-      <c r="E44" s="287"/>
+      <c r="E44" s="268"/>
       <c r="F44" s="179">
         <v>45404</v>
       </c>
       <c r="G44" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="289"/>
+      <c r="H44" s="270"/>
       <c r="I44" s="119"/>
       <c r="J44" s="112"/>
       <c r="N44">
@@ -10165,10 +10227,10 @@
       <c r="B45" s="306"/>
       <c r="C45" s="120"/>
       <c r="D45" s="158"/>
-      <c r="E45" s="287"/>
+      <c r="E45" s="268"/>
       <c r="F45" s="179"/>
       <c r="G45" s="158"/>
-      <c r="H45" s="289"/>
+      <c r="H45" s="270"/>
       <c r="I45" s="119"/>
       <c r="J45" s="112"/>
     </row>
@@ -10176,12 +10238,12 @@
       <c r="B46" s="306"/>
       <c r="C46" s="125"/>
       <c r="D46" s="184"/>
-      <c r="E46" s="287"/>
+      <c r="E46" s="268"/>
       <c r="F46" s="188"/>
       <c r="G46" s="184">
         <v>41</v>
       </c>
-      <c r="H46" s="289"/>
+      <c r="H46" s="270"/>
       <c r="I46" s="118"/>
       <c r="J46" s="114"/>
     </row>
@@ -10189,10 +10251,10 @@
       <c r="B47" s="306"/>
       <c r="C47" s="125"/>
       <c r="D47" s="184"/>
-      <c r="E47" s="287"/>
+      <c r="E47" s="268"/>
       <c r="F47" s="188"/>
       <c r="G47" s="184"/>
-      <c r="H47" s="289"/>
+      <c r="H47" s="270"/>
       <c r="I47" s="118"/>
       <c r="J47" s="114"/>
     </row>
@@ -10200,10 +10262,10 @@
       <c r="B48" s="306"/>
       <c r="C48" s="125"/>
       <c r="D48" s="184"/>
-      <c r="E48" s="287"/>
+      <c r="E48" s="268"/>
       <c r="F48" s="188"/>
       <c r="G48" s="184"/>
-      <c r="H48" s="289"/>
+      <c r="H48" s="270"/>
       <c r="I48" s="118"/>
       <c r="J48" s="114"/>
     </row>
@@ -10211,14 +10273,14 @@
       <c r="B49" s="306"/>
       <c r="C49" s="131"/>
       <c r="D49" s="160"/>
-      <c r="E49" s="287"/>
+      <c r="E49" s="268"/>
       <c r="F49" s="178">
         <v>45505</v>
       </c>
       <c r="G49" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="289"/>
+      <c r="H49" s="270"/>
       <c r="I49" s="126"/>
       <c r="J49" s="115"/>
     </row>
@@ -10226,14 +10288,14 @@
       <c r="B50" s="306"/>
       <c r="C50" s="131"/>
       <c r="D50" s="160"/>
-      <c r="E50" s="287"/>
+      <c r="E50" s="268"/>
       <c r="F50" s="178">
         <v>45517</v>
       </c>
       <c r="G50" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="289"/>
+      <c r="H50" s="270"/>
       <c r="I50" s="126"/>
       <c r="J50" s="115"/>
     </row>
@@ -10241,14 +10303,14 @@
       <c r="B51" s="306"/>
       <c r="C51" s="131"/>
       <c r="D51" s="160"/>
-      <c r="E51" s="287"/>
+      <c r="E51" s="268"/>
       <c r="F51" s="178">
         <v>45530</v>
       </c>
       <c r="G51" s="160">
         <v>42</v>
       </c>
-      <c r="H51" s="289"/>
+      <c r="H51" s="270"/>
       <c r="I51" s="126"/>
       <c r="J51" s="115"/>
     </row>
@@ -10256,14 +10318,14 @@
       <c r="B52" s="306"/>
       <c r="C52" s="132"/>
       <c r="D52" s="162"/>
-      <c r="E52" s="287"/>
+      <c r="E52" s="268"/>
       <c r="F52" s="173">
         <v>45544</v>
       </c>
       <c r="G52" s="162">
         <v>42</v>
       </c>
-      <c r="H52" s="289"/>
+      <c r="H52" s="270"/>
       <c r="I52" s="127"/>
       <c r="J52" s="117"/>
     </row>
@@ -10271,14 +10333,14 @@
       <c r="B53" s="306"/>
       <c r="C53" s="132"/>
       <c r="D53" s="162"/>
-      <c r="E53" s="287"/>
+      <c r="E53" s="268"/>
       <c r="F53" s="173">
         <v>45586</v>
       </c>
       <c r="G53" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="H53" s="289"/>
+      <c r="H53" s="270"/>
       <c r="I53" s="127"/>
       <c r="J53" s="117"/>
       <c r="O53">
@@ -10289,14 +10351,14 @@
       <c r="B54" s="306"/>
       <c r="C54" s="132"/>
       <c r="D54" s="117"/>
-      <c r="E54" s="287"/>
+      <c r="E54" s="268"/>
       <c r="F54" s="127">
         <v>45589</v>
       </c>
       <c r="G54" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="289"/>
+      <c r="H54" s="270"/>
       <c r="I54" s="127"/>
       <c r="J54" s="117"/>
     </row>
@@ -10304,7 +10366,7 @@
       <c r="B55" s="307"/>
       <c r="C55" s="132"/>
       <c r="D55" s="117"/>
-      <c r="E55" s="295"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="127">
         <v>45593</v>
       </c>
@@ -10316,7 +10378,7 @@
       <c r="J55" s="117"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="269" t="s">
+      <c r="B56" s="271" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="32" t="s">
@@ -10345,7 +10407,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="269"/>
+      <c r="B57" s="271"/>
       <c r="C57" s="179">
         <v>45327</v>
       </c>
@@ -10360,7 +10422,7 @@
       <c r="J57" s="112"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="269"/>
+      <c r="B58" s="271"/>
       <c r="C58" s="179">
         <v>45371</v>
       </c>
@@ -10375,7 +10437,7 @@
       <c r="J58" s="112"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="269"/>
+      <c r="B59" s="271"/>
       <c r="C59" s="179"/>
       <c r="D59" s="158"/>
       <c r="E59" s="301"/>
@@ -10386,7 +10448,7 @@
       <c r="J59" s="112"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="269"/>
+      <c r="B60" s="271"/>
       <c r="C60" s="179"/>
       <c r="D60" s="158"/>
       <c r="E60" s="301"/>
@@ -10397,7 +10459,7 @@
       <c r="J60" s="112"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="269"/>
+      <c r="B61" s="271"/>
       <c r="C61" s="188"/>
       <c r="D61" s="184">
         <v>42</v>
@@ -10410,7 +10472,7 @@
       <c r="J61" s="114"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="269"/>
+      <c r="B62" s="271"/>
       <c r="C62" s="188"/>
       <c r="D62" s="184">
         <v>42</v>
@@ -10423,7 +10485,7 @@
       <c r="J62" s="114"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="269"/>
+      <c r="B63" s="271"/>
       <c r="C63" s="188"/>
       <c r="D63" s="184"/>
       <c r="E63" s="301"/>
@@ -10434,7 +10496,7 @@
       <c r="J63" s="114"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="269"/>
+      <c r="B64" s="271"/>
       <c r="C64" s="188"/>
       <c r="D64" s="184"/>
       <c r="E64" s="301"/>
@@ -10445,7 +10507,7 @@
       <c r="J64" s="114"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="269"/>
+      <c r="B65" s="271"/>
       <c r="C65" s="178">
         <v>45491</v>
       </c>
@@ -10460,7 +10522,7 @@
       <c r="J65" s="115"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="269"/>
+      <c r="B66" s="271"/>
       <c r="C66" s="178">
         <v>45512</v>
       </c>
@@ -10475,7 +10537,7 @@
       <c r="J66" s="115"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="269"/>
+      <c r="B67" s="271"/>
       <c r="C67" s="178">
         <v>45548</v>
       </c>
@@ -10490,7 +10552,7 @@
       <c r="J67" s="115"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="269"/>
+      <c r="B68" s="271"/>
       <c r="C68" s="178">
         <v>45553</v>
       </c>
@@ -10505,9 +10567,13 @@
       <c r="J68" s="115"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="269"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="162"/>
+      <c r="B69" s="271"/>
+      <c r="C69" s="173">
+        <v>45603</v>
+      </c>
+      <c r="D69" s="162">
+        <v>21</v>
+      </c>
       <c r="E69" s="301"/>
       <c r="F69" s="127"/>
       <c r="G69" s="117"/>
@@ -10516,7 +10582,7 @@
       <c r="J69" s="117"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="269"/>
+      <c r="B70" s="271"/>
       <c r="C70" s="173"/>
       <c r="D70" s="162"/>
       <c r="E70" s="301"/>
@@ -10527,7 +10593,7 @@
       <c r="J70" s="117"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="269"/>
+      <c r="B71" s="271"/>
       <c r="C71" s="173"/>
       <c r="D71" s="162"/>
       <c r="E71" s="301"/>
@@ -10538,7 +10604,7 @@
       <c r="J71" s="117"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="269"/>
+      <c r="B72" s="271"/>
       <c r="C72" s="173"/>
       <c r="D72" s="162"/>
       <c r="E72" s="301"/>
@@ -10549,7 +10615,7 @@
       <c r="J72" s="117"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="290" t="s">
+      <c r="B73" s="272" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="34" t="s">
@@ -10558,7 +10624,7 @@
       <c r="D73" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="288" t="s">
+      <c r="E73" s="269" t="s">
         <v>37</v>
       </c>
       <c r="F73" s="32" t="s">
@@ -10578,10 +10644,10 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="290"/>
+      <c r="B74" s="272"/>
       <c r="C74" s="128"/>
       <c r="D74" s="129"/>
-      <c r="E74" s="289"/>
+      <c r="E74" s="270"/>
       <c r="F74" s="130"/>
       <c r="G74" s="112"/>
       <c r="H74" s="298"/>
@@ -10589,10 +10655,10 @@
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="290"/>
+      <c r="B75" s="272"/>
       <c r="C75" s="128"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="289"/>
+      <c r="E75" s="270"/>
       <c r="F75" s="130"/>
       <c r="G75" s="112"/>
       <c r="H75" s="298"/>
@@ -10600,10 +10666,10 @@
       <c r="J75" s="112"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="290"/>
+      <c r="B76" s="272"/>
       <c r="C76" s="128"/>
       <c r="D76" s="129"/>
-      <c r="E76" s="289"/>
+      <c r="E76" s="270"/>
       <c r="F76" s="130"/>
       <c r="G76" s="112"/>
       <c r="H76" s="298"/>
@@ -10611,10 +10677,10 @@
       <c r="J76" s="112"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="290"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="128"/>
       <c r="D77" s="129"/>
-      <c r="E77" s="289"/>
+      <c r="E77" s="270"/>
       <c r="F77" s="128"/>
       <c r="G77" s="129"/>
       <c r="H77" s="298"/>
@@ -10622,10 +10688,10 @@
       <c r="J77" s="112"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="290"/>
+      <c r="B78" s="272"/>
       <c r="C78" s="133"/>
       <c r="D78" s="134"/>
-      <c r="E78" s="289"/>
+      <c r="E78" s="270"/>
       <c r="F78" s="133"/>
       <c r="G78" s="134"/>
       <c r="H78" s="298"/>
@@ -10633,10 +10699,10 @@
       <c r="J78" s="114"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="290"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="133"/>
       <c r="D79" s="134"/>
-      <c r="E79" s="289"/>
+      <c r="E79" s="270"/>
       <c r="F79" s="133"/>
       <c r="G79" s="134"/>
       <c r="H79" s="298"/>
@@ -10644,10 +10710,10 @@
       <c r="J79" s="114"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="290"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="133"/>
       <c r="D80" s="134"/>
-      <c r="E80" s="289"/>
+      <c r="E80" s="270"/>
       <c r="F80" s="118"/>
       <c r="G80" s="114"/>
       <c r="H80" s="298"/>
@@ -10655,10 +10721,10 @@
       <c r="J80" s="114"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="290"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="118"/>
       <c r="D81" s="114"/>
-      <c r="E81" s="289"/>
+      <c r="E81" s="270"/>
       <c r="F81" s="133"/>
       <c r="G81" s="134"/>
       <c r="H81" s="298"/>
@@ -10666,14 +10732,14 @@
       <c r="J81" s="114"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="290"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="126">
         <v>45562</v>
       </c>
       <c r="D82" s="115">
         <v>20</v>
       </c>
-      <c r="E82" s="289"/>
+      <c r="E82" s="270"/>
       <c r="F82" s="131"/>
       <c r="G82" s="115"/>
       <c r="H82" s="298"/>
@@ -10681,14 +10747,14 @@
       <c r="J82" s="115"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="290"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="126">
         <v>45581</v>
       </c>
       <c r="D83" s="115">
         <v>40</v>
       </c>
-      <c r="E83" s="289"/>
+      <c r="E83" s="270"/>
       <c r="F83" s="115"/>
       <c r="G83" s="115"/>
       <c r="H83" s="298"/>
@@ -10696,10 +10762,10 @@
       <c r="J83" s="115"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="290"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="126"/>
       <c r="D84" s="115"/>
-      <c r="E84" s="289"/>
+      <c r="E84" s="270"/>
       <c r="F84" s="115"/>
       <c r="G84" s="115"/>
       <c r="H84" s="298"/>
@@ -10707,10 +10773,10 @@
       <c r="J84" s="115"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="290"/>
+      <c r="B85" s="272"/>
       <c r="C85" s="126"/>
       <c r="D85" s="115"/>
-      <c r="E85" s="289"/>
+      <c r="E85" s="270"/>
       <c r="F85" s="115"/>
       <c r="G85" s="115"/>
       <c r="H85" s="298"/>
@@ -10718,10 +10784,10 @@
       <c r="J85" s="115"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="290"/>
+      <c r="B86" s="272"/>
       <c r="C86" s="136"/>
       <c r="D86" s="137"/>
-      <c r="E86" s="289"/>
+      <c r="E86" s="270"/>
       <c r="F86" s="137"/>
       <c r="G86" s="138"/>
       <c r="H86" s="298"/>
@@ -10729,10 +10795,10 @@
       <c r="J86" s="138"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="290"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="138"/>
       <c r="D87" s="138"/>
-      <c r="E87" s="289"/>
+      <c r="E87" s="270"/>
       <c r="F87" s="137"/>
       <c r="G87" s="138"/>
       <c r="H87" s="298"/>
@@ -10740,10 +10806,10 @@
       <c r="J87" s="138"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="290"/>
+      <c r="B88" s="272"/>
       <c r="C88" s="138"/>
       <c r="D88" s="138"/>
-      <c r="E88" s="289"/>
+      <c r="E88" s="270"/>
       <c r="F88" s="137"/>
       <c r="G88" s="138"/>
       <c r="H88" s="298"/>
@@ -10751,7 +10817,7 @@
       <c r="J88" s="138"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="290"/>
+      <c r="B89" s="272"/>
       <c r="C89" s="138"/>
       <c r="D89" s="138"/>
       <c r="E89" s="296"/>
@@ -10763,11 +10829,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="B9:J9"/>
     <mergeCell ref="B73:B89"/>
     <mergeCell ref="E73:E89"/>
     <mergeCell ref="H73:H89"/>
@@ -10783,6 +10844,11 @@
     <mergeCell ref="B41:B55"/>
     <mergeCell ref="E41:E55"/>
     <mergeCell ref="H41:H55"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10813,64 +10879,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264" t="s">
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -10882,50 +10948,50 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="265" t="s">
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="266" t="s">
+      <c r="B9" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="268"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="295"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="283" t="s">
+      <c r="B10" s="264" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -10934,7 +11000,7 @@
       <c r="D10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="288" t="s">
+      <c r="E10" s="269" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -10943,7 +11009,7 @@
       <c r="G10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="308" t="s">
+      <c r="H10" s="309" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -10954,235 +11020,235 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="284"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="131">
         <v>45343</v>
       </c>
       <c r="D11" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="289"/>
+      <c r="E11" s="270"/>
       <c r="F11" s="131">
         <v>45327</v>
       </c>
       <c r="G11" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="309"/>
+      <c r="H11" s="310"/>
       <c r="I11" s="143"/>
       <c r="J11" s="115"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="284"/>
+      <c r="B12" s="265"/>
       <c r="C12" s="131">
         <v>45369</v>
       </c>
       <c r="D12" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="289"/>
+      <c r="E12" s="270"/>
       <c r="F12" s="131">
         <v>45341</v>
       </c>
       <c r="G12" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="309"/>
+      <c r="H12" s="310"/>
       <c r="I12" s="143"/>
       <c r="J12" s="115"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="284"/>
+      <c r="B13" s="265"/>
       <c r="C13" s="131">
         <v>45421</v>
       </c>
       <c r="D13" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="289"/>
+      <c r="E13" s="270"/>
       <c r="F13" s="131">
         <v>45349</v>
       </c>
       <c r="G13" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="309"/>
+      <c r="H13" s="310"/>
       <c r="I13" s="115"/>
       <c r="J13" s="115"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="284"/>
+      <c r="B14" s="265"/>
       <c r="C14" s="131"/>
       <c r="D14" s="115"/>
-      <c r="E14" s="289"/>
+      <c r="E14" s="270"/>
       <c r="F14" s="131">
         <v>45362</v>
       </c>
       <c r="G14" s="115">
         <v>12</v>
       </c>
-      <c r="H14" s="309"/>
+      <c r="H14" s="310"/>
       <c r="I14" s="115"/>
       <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="284"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="120"/>
       <c r="D15" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="289"/>
+      <c r="E15" s="270"/>
       <c r="F15" s="120">
         <v>45390</v>
       </c>
       <c r="G15" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="309"/>
+      <c r="H15" s="310"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="284"/>
+      <c r="B16" s="265"/>
       <c r="C16" s="120"/>
       <c r="D16" s="112"/>
-      <c r="E16" s="289"/>
+      <c r="E16" s="270"/>
       <c r="F16" s="120">
         <v>45411</v>
       </c>
       <c r="G16" s="112">
         <v>12</v>
       </c>
-      <c r="H16" s="309"/>
+      <c r="H16" s="310"/>
       <c r="I16" s="112"/>
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="284"/>
+      <c r="B17" s="265"/>
       <c r="C17" s="120"/>
       <c r="D17" s="112"/>
-      <c r="E17" s="289"/>
+      <c r="E17" s="270"/>
       <c r="F17" s="120">
         <v>45419</v>
       </c>
       <c r="G17" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="309"/>
+      <c r="H17" s="310"/>
       <c r="I17" s="112"/>
       <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="284"/>
+      <c r="B18" s="265"/>
       <c r="C18" s="120"/>
       <c r="D18" s="112"/>
-      <c r="E18" s="289"/>
+      <c r="E18" s="270"/>
       <c r="F18" s="120"/>
       <c r="G18" s="112"/>
-      <c r="H18" s="309"/>
+      <c r="H18" s="310"/>
       <c r="I18" s="112"/>
       <c r="J18" s="112"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="284"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="132">
         <v>45496</v>
       </c>
       <c r="D19" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="289"/>
+      <c r="E19" s="270"/>
       <c r="F19" s="132">
         <v>45488</v>
       </c>
       <c r="G19" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="309"/>
+      <c r="H19" s="310"/>
       <c r="I19" s="117"/>
       <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="284"/>
+      <c r="B20" s="265"/>
       <c r="C20" s="132">
         <v>45519</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="289"/>
+      <c r="E20" s="270"/>
       <c r="F20" s="132">
         <v>45495</v>
       </c>
       <c r="G20" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="309"/>
+      <c r="H20" s="310"/>
       <c r="I20" s="117"/>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="284"/>
+      <c r="B21" s="265"/>
       <c r="C21" s="132">
         <v>45597</v>
       </c>
       <c r="D21" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="289"/>
+      <c r="E21" s="270"/>
       <c r="F21" s="132">
         <v>45509</v>
       </c>
       <c r="G21" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="309"/>
+      <c r="H21" s="310"/>
       <c r="I21" s="117"/>
       <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="284"/>
+      <c r="B22" s="265"/>
       <c r="C22" s="170"/>
       <c r="D22" s="140"/>
-      <c r="E22" s="289"/>
+      <c r="E22" s="270"/>
       <c r="F22" s="170">
         <v>45545</v>
       </c>
       <c r="G22" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="309"/>
+      <c r="H22" s="310"/>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="284"/>
+      <c r="B23" s="265"/>
       <c r="C23" s="170"/>
       <c r="D23" s="140"/>
-      <c r="E23" s="289"/>
+      <c r="E23" s="270"/>
       <c r="F23" s="170">
         <v>45558</v>
       </c>
       <c r="G23" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="285"/>
+      <c r="B24" s="266"/>
       <c r="C24" s="170"/>
       <c r="D24" s="140"/>
       <c r="E24" s="296"/>
       <c r="F24" s="170"/>
       <c r="G24" s="140"/>
-      <c r="H24" s="310"/>
+      <c r="H24" s="311"/>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="272" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -11200,7 +11266,7 @@
       <c r="G25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="288" t="s">
+      <c r="H25" s="269" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="21" t="s">
@@ -11211,95 +11277,95 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="290"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="176"/>
       <c r="D26" s="147"/>
       <c r="E26" s="278"/>
       <c r="F26" s="176"/>
       <c r="G26" s="147"/>
-      <c r="H26" s="289"/>
+      <c r="H26" s="270"/>
       <c r="I26" s="176"/>
       <c r="J26" s="147"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="290"/>
+      <c r="B27" s="272"/>
       <c r="C27" s="176"/>
       <c r="D27" s="147"/>
       <c r="E27" s="278"/>
       <c r="F27" s="176"/>
       <c r="G27" s="147"/>
-      <c r="H27" s="289"/>
+      <c r="H27" s="270"/>
       <c r="I27" s="176"/>
       <c r="J27" s="147"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="290"/>
+      <c r="B28" s="272"/>
       <c r="C28" s="176"/>
       <c r="D28" s="147"/>
       <c r="E28" s="278"/>
       <c r="F28" s="176"/>
       <c r="G28" s="147"/>
-      <c r="H28" s="289"/>
+      <c r="H28" s="270"/>
       <c r="I28" s="176"/>
       <c r="J28" s="147"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="290"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="176"/>
       <c r="D29" s="147"/>
       <c r="E29" s="278"/>
       <c r="F29" s="178"/>
       <c r="G29" s="147"/>
-      <c r="H29" s="289"/>
+      <c r="H29" s="270"/>
       <c r="I29" s="176"/>
       <c r="J29" s="147"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="290"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="130"/>
       <c r="D30" s="129"/>
       <c r="E30" s="278"/>
       <c r="F30" s="179"/>
       <c r="G30" s="129"/>
-      <c r="H30" s="289"/>
+      <c r="H30" s="270"/>
       <c r="I30" s="130"/>
       <c r="J30" s="129"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="290"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="130"/>
       <c r="D31" s="129"/>
       <c r="E31" s="278"/>
       <c r="F31" s="130"/>
       <c r="G31" s="129"/>
-      <c r="H31" s="289"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="130"/>
       <c r="J31" s="129"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="290"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="130"/>
       <c r="D32" s="129"/>
       <c r="E32" s="278"/>
       <c r="F32" s="130"/>
       <c r="G32" s="129"/>
-      <c r="H32" s="289"/>
+      <c r="H32" s="270"/>
       <c r="I32" s="130"/>
       <c r="J32" s="129"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="290"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="177"/>
       <c r="D33" s="135"/>
       <c r="E33" s="278"/>
       <c r="F33" s="173"/>
       <c r="G33" s="135"/>
-      <c r="H33" s="289"/>
+      <c r="H33" s="270"/>
       <c r="I33" s="177"/>
       <c r="J33" s="135"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="290"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="177"/>
       <c r="D34" s="135"/>
       <c r="E34" s="278"/>
@@ -11309,34 +11375,34 @@
       <c r="G34" s="135">
         <v>13</v>
       </c>
-      <c r="H34" s="289"/>
+      <c r="H34" s="270"/>
       <c r="I34" s="177"/>
       <c r="J34" s="135"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="290"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="170"/>
       <c r="D35" s="140"/>
       <c r="E35" s="278"/>
       <c r="F35" s="170"/>
       <c r="G35" s="140"/>
-      <c r="H35" s="289"/>
+      <c r="H35" s="270"/>
       <c r="I35" s="170"/>
       <c r="J35" s="140"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="290"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="170"/>
       <c r="D36" s="140"/>
       <c r="E36" s="278"/>
       <c r="F36" s="170"/>
       <c r="G36" s="140"/>
-      <c r="H36" s="289"/>
+      <c r="H36" s="270"/>
       <c r="I36" s="170"/>
       <c r="J36" s="140"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="290"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="140"/>
       <c r="D37" s="140"/>
       <c r="E37" s="279"/>
@@ -11347,7 +11413,7 @@
       <c r="J37" s="140"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="269" t="s">
+      <c r="B38" s="271" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -11356,7 +11422,7 @@
       <c r="D38" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="286" t="s">
+      <c r="E38" s="267" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="21" t="s">
@@ -11376,14 +11442,14 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="269"/>
+      <c r="B39" s="271"/>
       <c r="C39" s="131">
         <v>45327</v>
       </c>
       <c r="D39" s="115">
         <v>12</v>
       </c>
-      <c r="E39" s="287"/>
+      <c r="E39" s="268"/>
       <c r="F39" s="131">
         <v>45356</v>
       </c>
@@ -11395,10 +11461,10 @@
       <c r="J39" s="115"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="269"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="131"/>
       <c r="D40" s="115"/>
-      <c r="E40" s="287"/>
+      <c r="E40" s="268"/>
       <c r="F40" s="131">
         <v>45411</v>
       </c>
@@ -11410,10 +11476,10 @@
       <c r="J40" s="115"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="269"/>
+      <c r="B41" s="271"/>
       <c r="C41" s="131"/>
       <c r="D41" s="115"/>
-      <c r="E41" s="287"/>
+      <c r="E41" s="268"/>
       <c r="F41" s="131"/>
       <c r="G41" s="115"/>
       <c r="H41" s="278"/>
@@ -11421,10 +11487,10 @@
       <c r="J41" s="115"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="269"/>
+      <c r="B42" s="271"/>
       <c r="C42" s="131"/>
       <c r="D42" s="115"/>
-      <c r="E42" s="287"/>
+      <c r="E42" s="268"/>
       <c r="F42" s="131"/>
       <c r="G42" s="115"/>
       <c r="H42" s="278"/>
@@ -11432,10 +11498,10 @@
       <c r="J42" s="115"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="269"/>
+      <c r="B43" s="271"/>
       <c r="C43" s="130"/>
       <c r="D43" s="129"/>
-      <c r="E43" s="287"/>
+      <c r="E43" s="268"/>
       <c r="F43" s="130"/>
       <c r="G43" s="158" t="s">
         <v>108</v>
@@ -11445,10 +11511,10 @@
       <c r="J43" s="129"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="269"/>
+      <c r="B44" s="271"/>
       <c r="C44" s="130"/>
       <c r="D44" s="129"/>
-      <c r="E44" s="287"/>
+      <c r="E44" s="268"/>
       <c r="F44" s="179"/>
       <c r="G44" s="129"/>
       <c r="H44" s="278"/>
@@ -11456,10 +11522,10 @@
       <c r="J44" s="129"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="269"/>
+      <c r="B45" s="271"/>
       <c r="C45" s="130"/>
       <c r="D45" s="129"/>
-      <c r="E45" s="287"/>
+      <c r="E45" s="268"/>
       <c r="F45" s="130"/>
       <c r="G45" s="129"/>
       <c r="H45" s="278"/>
@@ -11467,10 +11533,10 @@
       <c r="J45" s="129"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="269"/>
+      <c r="B46" s="271"/>
       <c r="C46" s="132"/>
       <c r="D46" s="117"/>
-      <c r="E46" s="287"/>
+      <c r="E46" s="268"/>
       <c r="F46" s="132"/>
       <c r="G46" s="117"/>
       <c r="H46" s="278"/>
@@ -11478,10 +11544,10 @@
       <c r="J46" s="117"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="269"/>
+      <c r="B47" s="271"/>
       <c r="C47" s="132"/>
       <c r="D47" s="117"/>
-      <c r="E47" s="287"/>
+      <c r="E47" s="268"/>
       <c r="F47" s="132"/>
       <c r="G47" s="117"/>
       <c r="H47" s="278"/>
@@ -11489,10 +11555,10 @@
       <c r="J47" s="117"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="269"/>
+      <c r="B48" s="271"/>
       <c r="C48" s="170"/>
       <c r="D48" s="140"/>
-      <c r="E48" s="287"/>
+      <c r="E48" s="268"/>
       <c r="F48" s="170"/>
       <c r="G48" s="140"/>
       <c r="H48" s="278"/>
@@ -11500,10 +11566,10 @@
       <c r="J48" s="140"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="269"/>
+      <c r="B49" s="271"/>
       <c r="C49" s="170"/>
       <c r="D49" s="140"/>
-      <c r="E49" s="287"/>
+      <c r="E49" s="268"/>
       <c r="F49" s="170"/>
       <c r="G49" s="140"/>
       <c r="H49" s="278"/>
@@ -11511,10 +11577,10 @@
       <c r="J49" s="140"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="269"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="170"/>
       <c r="D50" s="140"/>
-      <c r="E50" s="295"/>
+      <c r="E50" s="280"/>
       <c r="F50" s="170"/>
       <c r="G50" s="140"/>
       <c r="H50" s="279"/>
@@ -11522,7 +11588,7 @@
       <c r="J50" s="140"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="291" t="s">
+      <c r="B51" s="273" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -11531,7 +11597,7 @@
       <c r="D51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="288" t="s">
+      <c r="E51" s="269" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -11540,7 +11606,7 @@
       <c r="G51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="286" t="s">
+      <c r="H51" s="267" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="21" t="s">
@@ -11551,181 +11617,181 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="291"/>
+      <c r="B52" s="273"/>
       <c r="C52" s="131">
         <v>45327</v>
       </c>
       <c r="D52" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="289"/>
+      <c r="E52" s="270"/>
       <c r="F52" s="131"/>
       <c r="G52" s="115"/>
-      <c r="H52" s="287"/>
+      <c r="H52" s="268"/>
       <c r="I52" s="131"/>
       <c r="J52" s="115"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="291"/>
+      <c r="B53" s="273"/>
       <c r="C53" s="131"/>
       <c r="D53" s="115"/>
-      <c r="E53" s="289"/>
+      <c r="E53" s="270"/>
       <c r="F53" s="131"/>
       <c r="G53" s="115"/>
-      <c r="H53" s="287"/>
+      <c r="H53" s="268"/>
       <c r="I53" s="131"/>
       <c r="J53" s="115"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="291"/>
+      <c r="B54" s="273"/>
       <c r="C54" s="131"/>
       <c r="D54" s="115"/>
-      <c r="E54" s="289"/>
+      <c r="E54" s="270"/>
       <c r="F54" s="131"/>
       <c r="G54" s="115"/>
-      <c r="H54" s="287"/>
+      <c r="H54" s="268"/>
       <c r="I54" s="131"/>
       <c r="J54" s="115"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="291"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="131"/>
       <c r="D55" s="115"/>
-      <c r="E55" s="289"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="131"/>
       <c r="G55" s="115"/>
-      <c r="H55" s="287"/>
+      <c r="H55" s="268"/>
       <c r="I55" s="131"/>
       <c r="J55" s="115"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="291"/>
+      <c r="B56" s="273"/>
       <c r="C56" s="130"/>
       <c r="D56" s="129">
         <v>12</v>
       </c>
-      <c r="E56" s="289"/>
+      <c r="E56" s="270"/>
       <c r="F56" s="130"/>
       <c r="G56" s="129"/>
-      <c r="H56" s="287"/>
+      <c r="H56" s="268"/>
       <c r="I56" s="130"/>
       <c r="J56" s="129"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="291"/>
+      <c r="B57" s="273"/>
       <c r="C57" s="130"/>
       <c r="D57" s="129">
         <v>12</v>
       </c>
-      <c r="E57" s="289"/>
+      <c r="E57" s="270"/>
       <c r="F57" s="130"/>
       <c r="G57" s="129"/>
-      <c r="H57" s="287"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="130"/>
       <c r="J57" s="129"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="291"/>
+      <c r="B58" s="273"/>
       <c r="C58" s="130"/>
       <c r="D58" s="129"/>
-      <c r="E58" s="289"/>
+      <c r="E58" s="270"/>
       <c r="F58" s="130"/>
       <c r="G58" s="129"/>
-      <c r="H58" s="287"/>
+      <c r="H58" s="268"/>
       <c r="I58" s="130"/>
       <c r="J58" s="129"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="291"/>
+      <c r="B59" s="273"/>
       <c r="C59" s="132">
         <v>45491</v>
       </c>
       <c r="D59" s="117">
         <v>6</v>
       </c>
-      <c r="E59" s="289"/>
+      <c r="E59" s="270"/>
       <c r="F59" s="132"/>
       <c r="G59" s="117"/>
-      <c r="H59" s="287"/>
+      <c r="H59" s="268"/>
       <c r="I59" s="132"/>
       <c r="J59" s="117"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="291"/>
+      <c r="B60" s="273"/>
       <c r="C60" s="132">
         <v>45512</v>
       </c>
       <c r="D60" s="117">
         <v>12</v>
       </c>
-      <c r="E60" s="289"/>
+      <c r="E60" s="270"/>
       <c r="F60" s="132"/>
       <c r="G60" s="117"/>
-      <c r="H60" s="287"/>
+      <c r="H60" s="268"/>
       <c r="I60" s="132"/>
       <c r="J60" s="117"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="291"/>
+      <c r="B61" s="273"/>
       <c r="C61" s="132">
         <v>45554</v>
       </c>
       <c r="D61" s="117">
         <v>13</v>
       </c>
-      <c r="E61" s="289"/>
+      <c r="E61" s="270"/>
       <c r="F61" s="132"/>
       <c r="G61" s="117"/>
-      <c r="H61" s="287"/>
+      <c r="H61" s="268"/>
       <c r="I61" s="132"/>
       <c r="J61" s="117"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="291"/>
+      <c r="B62" s="273"/>
       <c r="C62" s="132"/>
       <c r="D62" s="117"/>
-      <c r="E62" s="289"/>
+      <c r="E62" s="270"/>
       <c r="F62" s="132"/>
       <c r="G62" s="117"/>
-      <c r="H62" s="287"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="132"/>
       <c r="J62" s="117"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="291"/>
+      <c r="B63" s="273"/>
       <c r="C63" s="170"/>
       <c r="D63" s="140"/>
-      <c r="E63" s="289"/>
+      <c r="E63" s="270"/>
       <c r="F63" s="170"/>
       <c r="G63" s="140"/>
-      <c r="H63" s="287"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="170"/>
       <c r="J63" s="140"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="291"/>
+      <c r="B64" s="273"/>
       <c r="C64" s="170"/>
       <c r="D64" s="140"/>
-      <c r="E64" s="289"/>
+      <c r="E64" s="270"/>
       <c r="F64" s="170"/>
       <c r="G64" s="140"/>
-      <c r="H64" s="287"/>
+      <c r="H64" s="268"/>
       <c r="I64" s="170"/>
       <c r="J64" s="140"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="291"/>
+      <c r="B65" s="273"/>
       <c r="C65" s="125"/>
       <c r="D65" s="114"/>
       <c r="E65" s="296"/>
       <c r="F65" s="170"/>
       <c r="G65" s="140"/>
-      <c r="H65" s="295"/>
+      <c r="H65" s="280"/>
       <c r="I65" s="170"/>
       <c r="J65" s="140"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="308" t="s">
+      <c r="B66" s="309" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -11734,7 +11800,7 @@
       <c r="D66" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="311" t="s">
+      <c r="E66" s="308" t="s">
         <v>42</v>
       </c>
       <c r="F66" s="20" t="s">
@@ -11743,7 +11809,7 @@
       <c r="G66" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="269" t="s">
+      <c r="H66" s="271" t="s">
         <v>37</v>
       </c>
       <c r="I66" s="21" t="s">
@@ -11754,150 +11820,158 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="309"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="131"/>
       <c r="D67" s="115"/>
-      <c r="E67" s="311"/>
+      <c r="E67" s="308"/>
       <c r="F67" s="131"/>
       <c r="G67" s="115"/>
-      <c r="H67" s="269"/>
+      <c r="H67" s="271"/>
       <c r="I67" s="131"/>
       <c r="J67" s="115"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="309"/>
+      <c r="B68" s="310"/>
       <c r="C68" s="190"/>
       <c r="D68" s="201"/>
-      <c r="E68" s="311"/>
+      <c r="E68" s="308"/>
       <c r="F68" s="131"/>
       <c r="G68" s="115"/>
-      <c r="H68" s="269"/>
+      <c r="H68" s="271"/>
       <c r="I68" s="131"/>
       <c r="J68" s="115"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="309"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="131"/>
       <c r="D69" s="115"/>
-      <c r="E69" s="311"/>
+      <c r="E69" s="308"/>
       <c r="F69" s="131"/>
       <c r="G69" s="115"/>
-      <c r="H69" s="269"/>
+      <c r="H69" s="271"/>
       <c r="I69" s="131"/>
       <c r="J69" s="115"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="309"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="131"/>
       <c r="D70" s="115"/>
-      <c r="E70" s="311"/>
+      <c r="E70" s="308"/>
       <c r="F70" s="131"/>
       <c r="G70" s="115"/>
-      <c r="H70" s="269"/>
+      <c r="H70" s="271"/>
       <c r="I70" s="131"/>
       <c r="J70" s="115"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="309"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="179"/>
       <c r="D71" s="129"/>
-      <c r="E71" s="311"/>
+      <c r="E71" s="308"/>
       <c r="F71" s="130"/>
       <c r="G71" s="129"/>
-      <c r="H71" s="269"/>
+      <c r="H71" s="271"/>
       <c r="I71" s="130"/>
       <c r="J71" s="129"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="309"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="130"/>
       <c r="D72" s="129"/>
-      <c r="E72" s="311"/>
+      <c r="E72" s="308"/>
       <c r="F72" s="130"/>
       <c r="G72" s="129"/>
-      <c r="H72" s="269"/>
+      <c r="H72" s="271"/>
       <c r="I72" s="130"/>
       <c r="J72" s="129"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="309"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="130"/>
       <c r="D73" s="129"/>
-      <c r="E73" s="311"/>
+      <c r="E73" s="308"/>
       <c r="F73" s="130"/>
       <c r="G73" s="129"/>
-      <c r="H73" s="269"/>
+      <c r="H73" s="271"/>
       <c r="I73" s="130"/>
       <c r="J73" s="129"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="309"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="132"/>
       <c r="D74" s="117"/>
-      <c r="E74" s="311"/>
+      <c r="E74" s="308"/>
       <c r="F74" s="132"/>
       <c r="G74" s="117"/>
-      <c r="H74" s="269"/>
+      <c r="H74" s="271"/>
       <c r="I74" s="132"/>
       <c r="J74" s="150"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="309"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="132"/>
       <c r="D75" s="117"/>
-      <c r="E75" s="311"/>
+      <c r="E75" s="308"/>
       <c r="F75" s="132"/>
       <c r="G75" s="117"/>
-      <c r="H75" s="269"/>
+      <c r="H75" s="271"/>
       <c r="I75" s="132"/>
       <c r="J75" s="150"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="309"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="132"/>
       <c r="D76" s="117"/>
-      <c r="E76" s="311"/>
+      <c r="E76" s="308"/>
       <c r="F76" s="132"/>
       <c r="G76" s="117"/>
-      <c r="H76" s="269"/>
+      <c r="H76" s="271"/>
       <c r="I76" s="132"/>
       <c r="J76" s="150"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="309"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="170"/>
       <c r="D77" s="140"/>
-      <c r="E77" s="311"/>
+      <c r="E77" s="308"/>
       <c r="F77" s="170"/>
       <c r="G77" s="140"/>
-      <c r="H77" s="269"/>
+      <c r="H77" s="271"/>
       <c r="I77" s="170"/>
       <c r="J77" s="140"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="309"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="170"/>
       <c r="D78" s="140"/>
-      <c r="E78" s="311"/>
+      <c r="E78" s="308"/>
       <c r="F78" s="170"/>
       <c r="G78" s="140"/>
-      <c r="H78" s="269"/>
+      <c r="H78" s="271"/>
       <c r="I78" s="170"/>
       <c r="J78" s="140"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="310"/>
+      <c r="B79" s="311"/>
       <c r="C79" s="170"/>
       <c r="D79" s="140"/>
-      <c r="E79" s="311"/>
+      <c r="E79" s="308"/>
       <c r="F79" s="170"/>
       <c r="G79" s="140"/>
-      <c r="H79" s="269"/>
+      <c r="H79" s="271"/>
       <c r="I79" s="170"/>
       <c r="J79" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="H10:H24"/>
+    <mergeCell ref="E10:E24"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="D7:J8"/>
     <mergeCell ref="H38:H50"/>
     <mergeCell ref="E38:E50"/>
     <mergeCell ref="E66:E79"/>
@@ -11910,14 +11984,6 @@
     <mergeCell ref="H51:H65"/>
     <mergeCell ref="H25:H37"/>
     <mergeCell ref="E25:E37"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="H10:H24"/>
-    <mergeCell ref="E10:E24"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="D7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11929,8 +11995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11953,15 +12019,15 @@
       <c r="A2" s="25"/>
       <c r="B2" s="315"/>
       <c r="C2" s="316"/>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -11971,13 +12037,13 @@
       <c r="A3" s="25"/>
       <c r="B3" s="317"/>
       <c r="C3" s="318"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -11987,15 +12053,15 @@
       <c r="A4" s="25"/>
       <c r="B4" s="317"/>
       <c r="C4" s="318"/>
-      <c r="D4" s="264" t="s">
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -12005,13 +12071,13 @@
       <c r="A5" s="25"/>
       <c r="B5" s="317"/>
       <c r="C5" s="318"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -12037,15 +12103,15 @@
       <c r="A7" s="25"/>
       <c r="B7" s="317"/>
       <c r="C7" s="318"/>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -12055,13 +12121,13 @@
       <c r="A8" s="25"/>
       <c r="B8" s="319"/>
       <c r="C8" s="320"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -12091,7 +12157,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="280" t="s">
+      <c r="B10" s="288" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -12109,7 +12175,7 @@
       <c r="G10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="308" t="s">
+      <c r="H10" s="309" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -12122,7 +12188,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
-      <c r="B11" s="281"/>
+      <c r="B11" s="289"/>
       <c r="C11" s="154">
         <v>45343</v>
       </c>
@@ -12136,7 +12202,7 @@
       <c r="G11" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="309"/>
+      <c r="H11" s="310"/>
       <c r="I11" s="154">
         <v>45341</v>
       </c>
@@ -12147,7 +12213,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="281"/>
+      <c r="B12" s="289"/>
       <c r="C12" s="154">
         <v>45369</v>
       </c>
@@ -12161,14 +12227,14 @@
       <c r="G12" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="309"/>
+      <c r="H12" s="310"/>
       <c r="I12" s="154"/>
       <c r="J12" s="152"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
-      <c r="B13" s="281"/>
+      <c r="B13" s="289"/>
       <c r="C13" s="154"/>
       <c r="D13" s="152"/>
       <c r="E13" s="278"/>
@@ -12178,14 +12244,14 @@
       <c r="G13" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="309"/>
+      <c r="H13" s="310"/>
       <c r="I13" s="154"/>
       <c r="J13" s="152"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="281"/>
+      <c r="B14" s="289"/>
       <c r="C14" s="154"/>
       <c r="D14" s="152"/>
       <c r="E14" s="278"/>
@@ -12195,14 +12261,14 @@
       <c r="G14" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="309"/>
+      <c r="H14" s="310"/>
       <c r="I14" s="154"/>
       <c r="J14" s="152"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
-      <c r="B15" s="281"/>
+      <c r="B15" s="289"/>
       <c r="C15" s="154"/>
       <c r="D15" s="152"/>
       <c r="E15" s="278"/>
@@ -12212,14 +12278,14 @@
       <c r="G15" s="200">
         <v>25</v>
       </c>
-      <c r="H15" s="309"/>
+      <c r="H15" s="310"/>
       <c r="I15" s="154"/>
       <c r="J15" s="152"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
-      <c r="B16" s="281"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="173"/>
       <c r="D16" s="162" t="s">
         <v>101</v>
@@ -12231,14 +12297,14 @@
       <c r="G16" s="162">
         <v>25</v>
       </c>
-      <c r="H16" s="309"/>
+      <c r="H16" s="310"/>
       <c r="I16" s="185"/>
       <c r="J16" s="162"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="281"/>
+      <c r="B17" s="289"/>
       <c r="C17" s="173"/>
       <c r="D17" s="162"/>
       <c r="E17" s="278"/>
@@ -12248,14 +12314,14 @@
       <c r="G17" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="309"/>
+      <c r="H17" s="310"/>
       <c r="I17" s="185"/>
       <c r="J17" s="162"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
-      <c r="B18" s="281"/>
+      <c r="B18" s="289"/>
       <c r="C18" s="173"/>
       <c r="D18" s="162"/>
       <c r="E18" s="278"/>
@@ -12265,14 +12331,14 @@
       <c r="G18" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="309"/>
+      <c r="H18" s="310"/>
       <c r="I18" s="185"/>
       <c r="J18" s="162"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="281"/>
+      <c r="B19" s="289"/>
       <c r="C19" s="179">
         <v>45496</v>
       </c>
@@ -12286,14 +12352,14 @@
       <c r="G19" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="309"/>
+      <c r="H19" s="310"/>
       <c r="I19" s="183"/>
       <c r="J19" s="158"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="281"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="179">
         <v>45519</v>
       </c>
@@ -12307,14 +12373,14 @@
       <c r="G20" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="309"/>
+      <c r="H20" s="310"/>
       <c r="I20" s="183"/>
       <c r="J20" s="158"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="281"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="179">
         <v>45597</v>
       </c>
@@ -12328,14 +12394,14 @@
       <c r="G21" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="309"/>
+      <c r="H21" s="310"/>
       <c r="I21" s="183"/>
       <c r="J21" s="158"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
-      <c r="B22" s="281"/>
+      <c r="B22" s="289"/>
       <c r="C22" s="179"/>
       <c r="D22" s="158"/>
       <c r="E22" s="278"/>
@@ -12345,14 +12411,14 @@
       <c r="G22" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="309"/>
+      <c r="H22" s="310"/>
       <c r="I22" s="183"/>
       <c r="J22" s="158"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
-      <c r="B23" s="281"/>
+      <c r="B23" s="289"/>
       <c r="C23" s="178"/>
       <c r="D23" s="160"/>
       <c r="E23" s="278"/>
@@ -12362,14 +12428,14 @@
       <c r="G23" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="186"/>
       <c r="J23" s="160"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
-      <c r="B24" s="281"/>
+      <c r="B24" s="289"/>
       <c r="C24" s="178"/>
       <c r="D24" s="160"/>
       <c r="E24" s="278"/>
@@ -12379,14 +12445,14 @@
       <c r="G24" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="309"/>
+      <c r="H24" s="310"/>
       <c r="I24" s="186"/>
       <c r="J24" s="160"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
-      <c r="B25" s="281"/>
+      <c r="B25" s="289"/>
       <c r="C25" s="178"/>
       <c r="D25" s="160"/>
       <c r="E25" s="278"/>
@@ -12396,40 +12462,40 @@
       <c r="G25" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="309"/>
+      <c r="H25" s="310"/>
       <c r="I25" s="186"/>
       <c r="J25" s="160"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
-      <c r="B26" s="281"/>
+      <c r="B26" s="289"/>
       <c r="C26" s="178"/>
       <c r="D26" s="160"/>
       <c r="E26" s="278"/>
       <c r="F26" s="178"/>
       <c r="G26" s="160"/>
-      <c r="H26" s="309"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="186"/>
       <c r="J26" s="160"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
-      <c r="B27" s="282"/>
+      <c r="B27" s="290"/>
       <c r="C27" s="178"/>
       <c r="D27" s="160"/>
       <c r="E27" s="279"/>
       <c r="F27" s="178"/>
       <c r="G27" s="160"/>
-      <c r="H27" s="310"/>
+      <c r="H27" s="311"/>
       <c r="I27" s="186"/>
       <c r="J27" s="160"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="272" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -12447,7 +12513,7 @@
       <c r="G28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="271" t="s">
+      <c r="H28" s="282" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -12460,7 +12526,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
-      <c r="B29" s="290"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="156"/>
       <c r="D29" s="146"/>
       <c r="E29" s="300"/>
@@ -12470,111 +12536,111 @@
       <c r="G29" s="146">
         <v>21</v>
       </c>
-      <c r="H29" s="272"/>
+      <c r="H29" s="283"/>
       <c r="I29" s="145"/>
       <c r="J29" s="146"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
-      <c r="B30" s="290"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="156"/>
       <c r="D30" s="146"/>
       <c r="E30" s="300"/>
       <c r="F30" s="145"/>
       <c r="G30" s="146"/>
-      <c r="H30" s="272"/>
+      <c r="H30" s="283"/>
       <c r="I30" s="145"/>
       <c r="J30" s="146"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
-      <c r="B31" s="290"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="156"/>
       <c r="D31" s="146"/>
       <c r="E31" s="300"/>
       <c r="F31" s="145"/>
       <c r="G31" s="146"/>
-      <c r="H31" s="272"/>
+      <c r="H31" s="283"/>
       <c r="I31" s="145"/>
       <c r="J31" s="146"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
-      <c r="B32" s="290"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="156"/>
       <c r="D32" s="146"/>
       <c r="E32" s="300"/>
       <c r="F32" s="145"/>
       <c r="G32" s="146"/>
-      <c r="H32" s="272"/>
+      <c r="H32" s="283"/>
       <c r="I32" s="145"/>
       <c r="J32" s="146"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
-      <c r="B33" s="290"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="161"/>
       <c r="D33" s="162"/>
       <c r="E33" s="300"/>
       <c r="F33" s="161"/>
       <c r="G33" s="162"/>
-      <c r="H33" s="272"/>
+      <c r="H33" s="283"/>
       <c r="I33" s="161"/>
       <c r="J33" s="162"/>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="290"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="161"/>
       <c r="D34" s="162"/>
       <c r="E34" s="300"/>
       <c r="F34" s="161"/>
       <c r="G34" s="162"/>
-      <c r="H34" s="272"/>
+      <c r="H34" s="283"/>
       <c r="I34" s="161"/>
       <c r="J34" s="162"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
-      <c r="B35" s="290"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="161"/>
       <c r="D35" s="162"/>
       <c r="E35" s="300"/>
       <c r="F35" s="161"/>
       <c r="G35" s="162"/>
-      <c r="H35" s="272"/>
+      <c r="H35" s="283"/>
       <c r="I35" s="161"/>
       <c r="J35" s="162"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
-      <c r="B36" s="290"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="161"/>
       <c r="D36" s="162"/>
       <c r="E36" s="300"/>
       <c r="F36" s="161"/>
       <c r="G36" s="162"/>
-      <c r="H36" s="272"/>
+      <c r="H36" s="283"/>
       <c r="I36" s="161"/>
       <c r="J36" s="162"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
-      <c r="B37" s="290"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="164"/>
       <c r="D37" s="129"/>
       <c r="E37" s="300"/>
       <c r="F37" s="164"/>
       <c r="G37" s="129"/>
-      <c r="H37" s="272"/>
+      <c r="H37" s="283"/>
       <c r="I37" s="164">
         <v>45509</v>
       </c>
@@ -12585,85 +12651,85 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
-      <c r="B38" s="290"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="164"/>
       <c r="D38" s="129"/>
       <c r="E38" s="300"/>
       <c r="F38" s="164"/>
       <c r="G38" s="129"/>
-      <c r="H38" s="272"/>
+      <c r="H38" s="283"/>
       <c r="I38" s="164"/>
       <c r="J38" s="129"/>
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
-      <c r="B39" s="290"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="164"/>
       <c r="D39" s="129"/>
       <c r="E39" s="300"/>
       <c r="F39" s="164"/>
       <c r="G39" s="129"/>
-      <c r="H39" s="272"/>
+      <c r="H39" s="283"/>
       <c r="I39" s="164"/>
       <c r="J39" s="129"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
-      <c r="B40" s="290"/>
+      <c r="B40" s="272"/>
       <c r="C40" s="157"/>
       <c r="D40" s="158"/>
       <c r="E40" s="300"/>
       <c r="F40" s="157"/>
       <c r="G40" s="158"/>
-      <c r="H40" s="272"/>
+      <c r="H40" s="283"/>
       <c r="I40" s="157"/>
       <c r="J40" s="158"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
-      <c r="B41" s="290"/>
+      <c r="B41" s="272"/>
       <c r="C41" s="159"/>
       <c r="D41" s="160"/>
       <c r="E41" s="300"/>
       <c r="F41" s="163"/>
       <c r="G41" s="160"/>
-      <c r="H41" s="272"/>
+      <c r="H41" s="283"/>
       <c r="I41" s="163"/>
       <c r="J41" s="160"/>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
-      <c r="B42" s="290"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="159"/>
       <c r="D42" s="160"/>
       <c r="E42" s="300"/>
       <c r="F42" s="163"/>
       <c r="G42" s="160"/>
-      <c r="H42" s="272"/>
+      <c r="H42" s="283"/>
       <c r="I42" s="163"/>
       <c r="J42" s="160"/>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
-      <c r="B43" s="290"/>
+      <c r="B43" s="272"/>
       <c r="C43" s="159"/>
       <c r="D43" s="160"/>
       <c r="E43" s="300"/>
       <c r="F43" s="163"/>
       <c r="G43" s="160"/>
-      <c r="H43" s="272"/>
+      <c r="H43" s="283"/>
       <c r="I43" s="163"/>
       <c r="J43" s="160"/>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
-      <c r="B44" s="291" t="s">
+      <c r="B44" s="273" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -12672,7 +12738,7 @@
       <c r="D44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="270" t="s">
+      <c r="E44" s="281" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -12681,7 +12747,7 @@
       <c r="G44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="292" t="s">
+      <c r="H44" s="274" t="s">
         <v>31</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -12694,21 +12760,21 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="291"/>
+      <c r="B45" s="273"/>
       <c r="C45" s="153">
         <v>45327</v>
       </c>
       <c r="D45" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="270"/>
+      <c r="E45" s="281"/>
       <c r="F45" s="154">
         <v>45329</v>
       </c>
       <c r="G45" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="293"/>
+      <c r="H45" s="275"/>
       <c r="I45" s="154">
         <v>45371</v>
       </c>
@@ -12719,201 +12785,209 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="291"/>
+      <c r="B46" s="273"/>
       <c r="C46" s="153"/>
       <c r="D46" s="152"/>
-      <c r="E46" s="270"/>
+      <c r="E46" s="281"/>
       <c r="F46" s="154">
         <v>45356</v>
       </c>
       <c r="G46" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="293"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="152"/>
+      <c r="H46" s="275"/>
+      <c r="I46" s="154">
+        <v>45602</v>
+      </c>
+      <c r="J46" s="152">
+        <v>22</v>
+      </c>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="291"/>
+      <c r="B47" s="273"/>
       <c r="C47" s="153"/>
       <c r="D47" s="152"/>
-      <c r="E47" s="270"/>
+      <c r="E47" s="281"/>
       <c r="F47" s="154"/>
       <c r="G47" s="152"/>
-      <c r="H47" s="293"/>
+      <c r="H47" s="275"/>
       <c r="I47" s="154"/>
       <c r="J47" s="152"/>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
-      <c r="B48" s="291"/>
+      <c r="B48" s="273"/>
       <c r="C48" s="153"/>
       <c r="D48" s="152"/>
-      <c r="E48" s="270"/>
+      <c r="E48" s="281"/>
       <c r="F48" s="154"/>
       <c r="G48" s="152"/>
-      <c r="H48" s="293"/>
+      <c r="H48" s="275"/>
       <c r="I48" s="154"/>
       <c r="J48" s="152"/>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="291"/>
+      <c r="B49" s="273"/>
       <c r="C49" s="187"/>
       <c r="D49" s="162"/>
-      <c r="E49" s="270"/>
+      <c r="E49" s="281"/>
       <c r="F49" s="185"/>
       <c r="G49" s="162"/>
-      <c r="H49" s="293"/>
+      <c r="H49" s="275"/>
       <c r="I49" s="185"/>
       <c r="J49" s="162"/>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="291"/>
+      <c r="B50" s="273"/>
       <c r="C50" s="187"/>
       <c r="D50" s="162"/>
-      <c r="E50" s="270"/>
+      <c r="E50" s="281"/>
       <c r="F50" s="185"/>
       <c r="G50" s="162"/>
-      <c r="H50" s="293"/>
+      <c r="H50" s="275"/>
       <c r="I50" s="185"/>
       <c r="J50" s="162"/>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
-      <c r="B51" s="291"/>
+      <c r="B51" s="273"/>
       <c r="C51" s="187"/>
       <c r="D51" s="162"/>
-      <c r="E51" s="270"/>
+      <c r="E51" s="281"/>
       <c r="F51" s="185"/>
       <c r="G51" s="162"/>
-      <c r="H51" s="293"/>
+      <c r="H51" s="275"/>
       <c r="I51" s="185"/>
       <c r="J51" s="162"/>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
-      <c r="B52" s="291"/>
+      <c r="B52" s="273"/>
       <c r="C52" s="187"/>
       <c r="D52" s="162"/>
-      <c r="E52" s="270"/>
+      <c r="E52" s="281"/>
       <c r="F52" s="185"/>
       <c r="G52" s="162"/>
-      <c r="H52" s="293"/>
+      <c r="H52" s="275"/>
       <c r="I52" s="185"/>
       <c r="J52" s="162"/>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
-      <c r="B53" s="291"/>
+      <c r="B53" s="273"/>
       <c r="C53" s="148"/>
       <c r="D53" s="129"/>
-      <c r="E53" s="270"/>
+      <c r="E53" s="281"/>
       <c r="F53" s="128">
         <v>45491</v>
       </c>
       <c r="G53" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="293"/>
+      <c r="H53" s="275"/>
       <c r="I53" s="128"/>
       <c r="J53" s="129"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
-      <c r="B54" s="291"/>
+      <c r="B54" s="273"/>
       <c r="C54" s="148"/>
       <c r="D54" s="129"/>
-      <c r="E54" s="270"/>
+      <c r="E54" s="281"/>
       <c r="F54" s="128">
         <v>45516</v>
       </c>
       <c r="G54" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="293"/>
+      <c r="H54" s="275"/>
       <c r="I54" s="128"/>
       <c r="J54" s="129"/>
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
-      <c r="B55" s="291"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="148"/>
       <c r="D55" s="129"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="293"/>
+      <c r="E55" s="281"/>
+      <c r="F55" s="128">
+        <v>45604</v>
+      </c>
+      <c r="G55" s="129">
+        <v>22</v>
+      </c>
+      <c r="H55" s="275"/>
       <c r="I55" s="128"/>
       <c r="J55" s="129"/>
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
-      <c r="B56" s="291"/>
+      <c r="B56" s="273"/>
       <c r="C56" s="163"/>
       <c r="D56" s="160"/>
-      <c r="E56" s="270"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="190"/>
       <c r="G56" s="166"/>
-      <c r="H56" s="293"/>
+      <c r="H56" s="275"/>
       <c r="I56" s="178"/>
       <c r="J56" s="160"/>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
-      <c r="B57" s="291"/>
+      <c r="B57" s="273"/>
       <c r="C57" s="163"/>
       <c r="D57" s="160"/>
-      <c r="E57" s="270"/>
+      <c r="E57" s="281"/>
       <c r="F57" s="178"/>
       <c r="G57" s="160"/>
-      <c r="H57" s="293"/>
+      <c r="H57" s="275"/>
       <c r="I57" s="178"/>
       <c r="J57" s="160"/>
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
-      <c r="B58" s="291"/>
+      <c r="B58" s="273"/>
       <c r="C58" s="163"/>
       <c r="D58" s="160"/>
-      <c r="E58" s="270"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="178"/>
       <c r="G58" s="160"/>
-      <c r="H58" s="293"/>
+      <c r="H58" s="275"/>
       <c r="I58" s="178"/>
       <c r="J58" s="160"/>
       <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
-      <c r="B59" s="291"/>
+      <c r="B59" s="273"/>
       <c r="C59" s="163"/>
       <c r="D59" s="160"/>
-      <c r="E59" s="270"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="163"/>
       <c r="G59" s="160"/>
-      <c r="H59" s="294"/>
+      <c r="H59" s="276"/>
       <c r="I59" s="163"/>
       <c r="J59" s="160"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
-      <c r="B60" s="280" t="s">
+      <c r="B60" s="288" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -12931,7 +13005,7 @@
       <c r="G60" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="286" t="s">
+      <c r="H60" s="267" t="s">
         <v>35</v>
       </c>
       <c r="I60" s="21" t="s">
@@ -12944,7 +13018,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
-      <c r="B61" s="281"/>
+      <c r="B61" s="289"/>
       <c r="C61" s="154">
         <v>45327</v>
       </c>
@@ -12954,14 +13028,14 @@
       <c r="E61" s="278"/>
       <c r="F61" s="155"/>
       <c r="G61" s="152"/>
-      <c r="H61" s="287"/>
+      <c r="H61" s="268"/>
       <c r="I61" s="153"/>
       <c r="J61" s="152"/>
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
-      <c r="B62" s="281"/>
+      <c r="B62" s="289"/>
       <c r="C62" s="154">
         <v>45371</v>
       </c>
@@ -12971,53 +13045,53 @@
       <c r="E62" s="278"/>
       <c r="F62" s="155"/>
       <c r="G62" s="152"/>
-      <c r="H62" s="287"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="153"/>
       <c r="J62" s="152"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
-      <c r="B63" s="281"/>
+      <c r="B63" s="289"/>
       <c r="C63" s="154"/>
       <c r="D63" s="152"/>
       <c r="E63" s="278"/>
       <c r="F63" s="155"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="287"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="153"/>
       <c r="J63" s="152"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
-      <c r="B64" s="281"/>
+      <c r="B64" s="289"/>
       <c r="C64" s="154"/>
       <c r="D64" s="152"/>
       <c r="E64" s="278"/>
       <c r="F64" s="155"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="287"/>
+      <c r="H64" s="268"/>
       <c r="I64" s="153"/>
       <c r="J64" s="152"/>
       <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
-      <c r="B65" s="281"/>
+      <c r="B65" s="289"/>
       <c r="C65" s="154"/>
       <c r="D65" s="152"/>
       <c r="E65" s="278"/>
       <c r="F65" s="155"/>
       <c r="G65" s="152"/>
-      <c r="H65" s="287"/>
+      <c r="H65" s="268"/>
       <c r="I65" s="153"/>
       <c r="J65" s="152"/>
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
-      <c r="B66" s="281"/>
+      <c r="B66" s="289"/>
       <c r="C66" s="173"/>
       <c r="D66" s="162">
         <v>25</v>
@@ -13025,14 +13099,14 @@
       <c r="E66" s="278"/>
       <c r="F66" s="161"/>
       <c r="G66" s="162"/>
-      <c r="H66" s="287"/>
+      <c r="H66" s="268"/>
       <c r="I66" s="161"/>
       <c r="J66" s="162"/>
       <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="25"/>
-      <c r="B67" s="281"/>
+      <c r="B67" s="289"/>
       <c r="C67" s="173"/>
       <c r="D67" s="162">
         <v>25</v>
@@ -13040,144 +13114,144 @@
       <c r="E67" s="278"/>
       <c r="F67" s="161"/>
       <c r="G67" s="162"/>
-      <c r="H67" s="287"/>
+      <c r="H67" s="268"/>
       <c r="I67" s="161"/>
       <c r="J67" s="162"/>
       <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
-      <c r="B68" s="281"/>
+      <c r="B68" s="289"/>
       <c r="C68" s="173"/>
       <c r="D68" s="162"/>
       <c r="E68" s="278"/>
       <c r="F68" s="161"/>
       <c r="G68" s="162"/>
-      <c r="H68" s="287"/>
+      <c r="H68" s="268"/>
       <c r="I68" s="161"/>
       <c r="J68" s="162"/>
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
-      <c r="B69" s="281"/>
+      <c r="B69" s="289"/>
       <c r="C69" s="173"/>
       <c r="D69" s="162"/>
       <c r="E69" s="278"/>
       <c r="F69" s="161"/>
       <c r="G69" s="162"/>
-      <c r="H69" s="287"/>
+      <c r="H69" s="268"/>
       <c r="I69" s="161"/>
       <c r="J69" s="162"/>
       <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
-      <c r="B70" s="281"/>
+      <c r="B70" s="289"/>
       <c r="C70" s="179"/>
       <c r="D70" s="158"/>
       <c r="E70" s="278"/>
       <c r="F70" s="164"/>
       <c r="G70" s="129"/>
-      <c r="H70" s="287"/>
+      <c r="H70" s="268"/>
       <c r="I70" s="164"/>
       <c r="J70" s="129"/>
       <c r="K70" s="8"/>
     </row>
     <row r="71" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
-      <c r="B71" s="281"/>
+      <c r="B71" s="289"/>
       <c r="C71" s="179"/>
       <c r="D71" s="158"/>
       <c r="E71" s="278"/>
       <c r="F71" s="164"/>
       <c r="G71" s="129"/>
-      <c r="H71" s="287"/>
+      <c r="H71" s="268"/>
       <c r="I71" s="164"/>
       <c r="J71" s="129"/>
       <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
-      <c r="B72" s="281"/>
+      <c r="B72" s="289"/>
       <c r="C72" s="130"/>
       <c r="D72" s="129"/>
       <c r="E72" s="278"/>
       <c r="F72" s="164"/>
       <c r="G72" s="129"/>
-      <c r="H72" s="287"/>
+      <c r="H72" s="268"/>
       <c r="I72" s="164"/>
       <c r="J72" s="129"/>
       <c r="K72" s="8"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
-      <c r="B73" s="281"/>
+      <c r="B73" s="289"/>
       <c r="C73" s="130"/>
       <c r="D73" s="129"/>
       <c r="E73" s="278"/>
       <c r="F73" s="164"/>
       <c r="G73" s="129"/>
-      <c r="H73" s="287"/>
+      <c r="H73" s="268"/>
       <c r="I73" s="164"/>
       <c r="J73" s="129"/>
       <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
-      <c r="B74" s="281"/>
+      <c r="B74" s="289"/>
       <c r="C74" s="178"/>
       <c r="D74" s="160"/>
       <c r="E74" s="278"/>
       <c r="F74" s="160"/>
       <c r="G74" s="160"/>
-      <c r="H74" s="287"/>
+      <c r="H74" s="268"/>
       <c r="I74" s="165"/>
       <c r="J74" s="147"/>
       <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
-      <c r="B75" s="281"/>
+      <c r="B75" s="289"/>
       <c r="C75" s="178"/>
       <c r="D75" s="160"/>
       <c r="E75" s="278"/>
       <c r="F75" s="160"/>
       <c r="G75" s="160"/>
-      <c r="H75" s="287"/>
+      <c r="H75" s="268"/>
       <c r="I75" s="163"/>
       <c r="J75" s="160"/>
       <c r="K75" s="8"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
-      <c r="B76" s="281"/>
+      <c r="B76" s="289"/>
       <c r="C76" s="178"/>
       <c r="D76" s="160"/>
       <c r="E76" s="278"/>
       <c r="F76" s="160"/>
       <c r="G76" s="160"/>
-      <c r="H76" s="287"/>
+      <c r="H76" s="268"/>
       <c r="I76" s="163"/>
       <c r="J76" s="160"/>
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
-      <c r="B77" s="282"/>
+      <c r="B77" s="290"/>
       <c r="C77" s="178"/>
       <c r="D77" s="160"/>
       <c r="E77" s="279"/>
       <c r="F77" s="160"/>
       <c r="G77" s="160"/>
-      <c r="H77" s="295"/>
+      <c r="H77" s="280"/>
       <c r="I77" s="163"/>
       <c r="J77" s="160"/>
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
-      <c r="B78" s="290" t="s">
+      <c r="B78" s="272" t="s">
         <v>50</v>
       </c>
       <c r="C78" s="22" t="s">
@@ -13195,7 +13269,7 @@
       <c r="G78" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="291" t="s">
+      <c r="H78" s="273" t="s">
         <v>11</v>
       </c>
       <c r="I78" s="35" t="s">
@@ -13208,156 +13282,156 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
-      <c r="B79" s="290"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="171"/>
       <c r="D79" s="146"/>
       <c r="E79" s="300"/>
       <c r="F79" s="145"/>
       <c r="G79" s="146"/>
-      <c r="H79" s="291"/>
+      <c r="H79" s="273"/>
       <c r="I79" s="156"/>
       <c r="J79" s="146"/>
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
-      <c r="B80" s="290"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="156"/>
       <c r="D80" s="146"/>
       <c r="E80" s="300"/>
       <c r="F80" s="145"/>
       <c r="G80" s="146"/>
-      <c r="H80" s="291"/>
+      <c r="H80" s="273"/>
       <c r="I80" s="156"/>
       <c r="J80" s="146"/>
       <c r="K80" s="8"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
-      <c r="B81" s="290"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="156"/>
       <c r="D81" s="146"/>
       <c r="E81" s="300"/>
       <c r="F81" s="145"/>
       <c r="G81" s="146"/>
-      <c r="H81" s="291"/>
+      <c r="H81" s="273"/>
       <c r="I81" s="156"/>
       <c r="J81" s="146"/>
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
-      <c r="B82" s="290"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="161"/>
       <c r="D82" s="162"/>
       <c r="E82" s="300"/>
       <c r="F82" s="161"/>
       <c r="G82" s="162"/>
-      <c r="H82" s="291"/>
+      <c r="H82" s="273"/>
       <c r="I82" s="161"/>
       <c r="J82" s="162"/>
       <c r="K82" s="8"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
-      <c r="B83" s="290"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="161"/>
       <c r="D83" s="162"/>
       <c r="E83" s="300"/>
       <c r="F83" s="161"/>
       <c r="G83" s="162"/>
-      <c r="H83" s="291"/>
+      <c r="H83" s="273"/>
       <c r="I83" s="161"/>
       <c r="J83" s="162"/>
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
-      <c r="B84" s="290"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="161"/>
       <c r="D84" s="162"/>
       <c r="E84" s="300"/>
       <c r="F84" s="161"/>
       <c r="G84" s="162"/>
-      <c r="H84" s="291"/>
+      <c r="H84" s="273"/>
       <c r="I84" s="161"/>
       <c r="J84" s="162"/>
       <c r="K84" s="8"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
-      <c r="B85" s="290"/>
+      <c r="B85" s="272"/>
       <c r="C85" s="157"/>
       <c r="D85" s="158"/>
       <c r="E85" s="300"/>
       <c r="F85" s="164"/>
       <c r="G85" s="129"/>
-      <c r="H85" s="291"/>
+      <c r="H85" s="273"/>
       <c r="I85" s="164"/>
       <c r="J85" s="129"/>
       <c r="K85" s="8"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
-      <c r="B86" s="290"/>
+      <c r="B86" s="272"/>
       <c r="C86" s="164"/>
       <c r="D86" s="129"/>
       <c r="E86" s="300"/>
       <c r="F86" s="164"/>
       <c r="G86" s="129"/>
-      <c r="H86" s="291"/>
+      <c r="H86" s="273"/>
       <c r="I86" s="164"/>
       <c r="J86" s="129"/>
       <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
-      <c r="B87" s="290"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="157"/>
       <c r="D87" s="158"/>
       <c r="E87" s="300"/>
       <c r="F87" s="157"/>
       <c r="G87" s="158"/>
-      <c r="H87" s="291"/>
+      <c r="H87" s="273"/>
       <c r="I87" s="157"/>
       <c r="J87" s="158"/>
       <c r="K87" s="8"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
-      <c r="B88" s="290"/>
+      <c r="B88" s="272"/>
       <c r="C88" s="159"/>
       <c r="D88" s="160"/>
       <c r="E88" s="300"/>
       <c r="F88" s="163"/>
       <c r="G88" s="160"/>
-      <c r="H88" s="291"/>
+      <c r="H88" s="273"/>
       <c r="I88" s="159"/>
       <c r="J88" s="160"/>
       <c r="K88" s="8"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
-      <c r="B89" s="290"/>
+      <c r="B89" s="272"/>
       <c r="C89" s="159"/>
       <c r="D89" s="160"/>
       <c r="E89" s="300"/>
       <c r="F89" s="163"/>
       <c r="G89" s="160"/>
-      <c r="H89" s="291"/>
+      <c r="H89" s="273"/>
       <c r="I89" s="159"/>
       <c r="J89" s="160"/>
       <c r="K89" s="8"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
-      <c r="B90" s="290"/>
+      <c r="B90" s="272"/>
       <c r="C90" s="159"/>
       <c r="D90" s="160"/>
       <c r="E90" s="300"/>
       <c r="F90" s="163"/>
       <c r="G90" s="160"/>
-      <c r="H90" s="291"/>
+      <c r="H90" s="273"/>
       <c r="I90" s="165"/>
       <c r="J90" s="147"/>
       <c r="K90" s="8"/>
@@ -13386,6 +13460,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="E28:E43"/>
+    <mergeCell ref="H28:H43"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="E10:E27"/>
+    <mergeCell ref="H10:H27"/>
     <mergeCell ref="B60:B77"/>
     <mergeCell ref="B44:B59"/>
     <mergeCell ref="E44:E59"/>
@@ -13395,17 +13480,6 @@
     <mergeCell ref="H60:H77"/>
     <mergeCell ref="E60:E77"/>
     <mergeCell ref="H78:H90"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="E28:E43"/>
-    <mergeCell ref="H28:H43"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="E10:E27"/>
-    <mergeCell ref="H10:H27"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B2:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13417,8 +13491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13439,15 +13513,15 @@
     <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="321"/>
       <c r="C2" s="322"/>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -13455,13 +13529,13 @@
     <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="323"/>
       <c r="C3" s="324"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -13469,15 +13543,15 @@
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="323"/>
       <c r="C4" s="324"/>
-      <c r="D4" s="264" t="s">
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -13485,13 +13559,13 @@
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="323"/>
       <c r="C5" s="324"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -13531,7 +13605,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="283" t="s">
+      <c r="B8" s="264" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -13540,7 +13614,7 @@
       <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="288" t="s">
+      <c r="E8" s="269" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -13549,7 +13623,7 @@
       <c r="G8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="308" t="s">
+      <c r="H8" s="309" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -13560,253 +13634,253 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="284"/>
+      <c r="B9" s="265"/>
       <c r="C9" s="131">
         <v>45343</v>
       </c>
       <c r="D9" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="289"/>
+      <c r="E9" s="270"/>
       <c r="F9" s="131">
         <v>45327</v>
       </c>
       <c r="G9" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="309"/>
+      <c r="H9" s="310"/>
       <c r="I9" s="141"/>
       <c r="J9" s="115"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="284"/>
+      <c r="B10" s="265"/>
       <c r="C10" s="178">
         <v>45369</v>
       </c>
       <c r="D10" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="289"/>
+      <c r="E10" s="270"/>
       <c r="F10" s="131">
         <v>45348</v>
       </c>
       <c r="G10" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="309"/>
+      <c r="H10" s="310"/>
       <c r="I10" s="141"/>
       <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="284"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="131">
         <v>45421</v>
       </c>
       <c r="D11" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="289"/>
+      <c r="E11" s="270"/>
       <c r="F11" s="131">
         <v>45355</v>
       </c>
       <c r="G11" s="115">
         <v>20</v>
       </c>
-      <c r="H11" s="309"/>
+      <c r="H11" s="310"/>
       <c r="I11" s="141"/>
       <c r="J11" s="115"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="284"/>
+      <c r="B12" s="265"/>
       <c r="C12" s="131"/>
       <c r="D12" s="115"/>
-      <c r="E12" s="289"/>
+      <c r="E12" s="270"/>
       <c r="F12" s="131">
         <v>45362</v>
       </c>
       <c r="G12" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="309"/>
+      <c r="H12" s="310"/>
       <c r="I12" s="141"/>
       <c r="J12" s="115"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="284"/>
+      <c r="B13" s="265"/>
       <c r="C13" s="120"/>
       <c r="D13" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="289"/>
+      <c r="E13" s="270"/>
       <c r="F13" s="120">
         <v>45397</v>
       </c>
       <c r="G13" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="309"/>
+      <c r="H13" s="310"/>
       <c r="I13" s="113"/>
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="284"/>
+      <c r="B14" s="265"/>
       <c r="C14" s="120"/>
       <c r="D14" s="112"/>
-      <c r="E14" s="289"/>
+      <c r="E14" s="270"/>
       <c r="F14" s="120">
         <v>45415</v>
       </c>
       <c r="G14" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="309"/>
+      <c r="H14" s="310"/>
       <c r="I14" s="113"/>
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="284"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="120"/>
       <c r="D15" s="112"/>
-      <c r="E15" s="289"/>
+      <c r="E15" s="270"/>
       <c r="F15" s="120">
         <v>45426</v>
       </c>
       <c r="G15" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="309"/>
+      <c r="H15" s="310"/>
       <c r="I15" s="113"/>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="284"/>
+      <c r="B16" s="265"/>
       <c r="C16" s="120"/>
       <c r="D16" s="112"/>
-      <c r="E16" s="289"/>
+      <c r="E16" s="270"/>
       <c r="F16" s="120"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="309"/>
+      <c r="H16" s="310"/>
       <c r="I16" s="113"/>
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="284"/>
+      <c r="B17" s="265"/>
       <c r="C17" s="132">
         <v>45496</v>
       </c>
       <c r="D17" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="289"/>
+      <c r="E17" s="270"/>
       <c r="F17" s="132">
         <v>45488</v>
       </c>
       <c r="G17" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="309"/>
+      <c r="H17" s="310"/>
       <c r="I17" s="167"/>
       <c r="J17" s="168"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="284"/>
+      <c r="B18" s="265"/>
       <c r="C18" s="132">
         <v>45509</v>
       </c>
       <c r="D18" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="289"/>
+      <c r="E18" s="270"/>
       <c r="F18" s="132">
         <v>45509</v>
       </c>
       <c r="G18" s="117">
         <v>20</v>
       </c>
-      <c r="H18" s="309"/>
+      <c r="H18" s="310"/>
       <c r="I18" s="142"/>
       <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="284"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="132">
         <v>45597</v>
       </c>
       <c r="D19" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="289"/>
+      <c r="E19" s="270"/>
       <c r="F19" s="132">
         <v>45524</v>
       </c>
       <c r="G19" s="117">
         <v>20</v>
       </c>
-      <c r="H19" s="309"/>
+      <c r="H19" s="310"/>
       <c r="I19" s="142"/>
       <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="284"/>
+      <c r="B20" s="265"/>
       <c r="C20" s="132"/>
       <c r="D20" s="117"/>
-      <c r="E20" s="289"/>
+      <c r="E20" s="270"/>
       <c r="F20" s="132">
         <v>45551</v>
       </c>
       <c r="G20" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="309"/>
+      <c r="H20" s="310"/>
       <c r="I20" s="142"/>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="284"/>
+      <c r="B21" s="265"/>
       <c r="C21" s="170"/>
       <c r="D21" s="140"/>
-      <c r="E21" s="289"/>
+      <c r="E21" s="270"/>
       <c r="F21" s="170"/>
       <c r="G21" s="140"/>
-      <c r="H21" s="309"/>
+      <c r="H21" s="310"/>
       <c r="I21" s="139"/>
       <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="284"/>
+      <c r="B22" s="265"/>
       <c r="C22" s="170"/>
       <c r="D22" s="140"/>
-      <c r="E22" s="289"/>
+      <c r="E22" s="270"/>
       <c r="F22" s="170"/>
       <c r="G22" s="140"/>
-      <c r="H22" s="309"/>
+      <c r="H22" s="310"/>
       <c r="I22" s="139"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="284"/>
+      <c r="B23" s="265"/>
       <c r="C23" s="170"/>
       <c r="D23" s="140"/>
-      <c r="E23" s="289"/>
+      <c r="E23" s="270"/>
       <c r="F23" s="170"/>
       <c r="G23" s="140"/>
-      <c r="H23" s="309"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="139"/>
       <c r="J23" s="140"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="285"/>
+      <c r="B24" s="266"/>
       <c r="C24" s="170"/>
       <c r="D24" s="140"/>
       <c r="E24" s="296"/>
       <c r="F24" s="170"/>
       <c r="G24" s="140"/>
-      <c r="H24" s="310"/>
+      <c r="H24" s="311"/>
       <c r="I24" s="139"/>
       <c r="J24" s="140"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="272" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -13815,7 +13889,7 @@
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="311" t="s">
+      <c r="E25" s="308" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -13824,7 +13898,7 @@
       <c r="G25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="292" t="s">
+      <c r="H25" s="274" t="s">
         <v>48</v>
       </c>
       <c r="I25" s="21" t="s">
@@ -13835,165 +13909,165 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="290"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="141"/>
       <c r="D26" s="115"/>
-      <c r="E26" s="311"/>
+      <c r="E26" s="308"/>
       <c r="F26" s="141"/>
       <c r="G26" s="115"/>
-      <c r="H26" s="293"/>
+      <c r="H26" s="275"/>
       <c r="I26" s="141"/>
       <c r="J26" s="115"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="290"/>
+      <c r="B27" s="272"/>
       <c r="C27" s="141"/>
       <c r="D27" s="115"/>
-      <c r="E27" s="311"/>
+      <c r="E27" s="308"/>
       <c r="F27" s="141"/>
       <c r="G27" s="115"/>
-      <c r="H27" s="293"/>
+      <c r="H27" s="275"/>
       <c r="I27" s="141"/>
       <c r="J27" s="115"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="290"/>
+      <c r="B28" s="272"/>
       <c r="C28" s="141"/>
       <c r="D28" s="115"/>
-      <c r="E28" s="311"/>
+      <c r="E28" s="308"/>
       <c r="F28" s="141"/>
       <c r="G28" s="115"/>
-      <c r="H28" s="293"/>
+      <c r="H28" s="275"/>
       <c r="I28" s="141"/>
       <c r="J28" s="115"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="290"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="141"/>
       <c r="D29" s="115"/>
-      <c r="E29" s="311"/>
+      <c r="E29" s="308"/>
       <c r="F29" s="141"/>
       <c r="G29" s="115"/>
-      <c r="H29" s="293"/>
+      <c r="H29" s="275"/>
       <c r="I29" s="141"/>
       <c r="J29" s="115"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="290"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="148"/>
       <c r="D30" s="129"/>
-      <c r="E30" s="311"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="172"/>
       <c r="G30" s="129"/>
-      <c r="H30" s="293"/>
+      <c r="H30" s="275"/>
       <c r="I30" s="148"/>
       <c r="J30" s="129"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="290"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="148"/>
       <c r="D31" s="129"/>
-      <c r="E31" s="311"/>
+      <c r="E31" s="308"/>
       <c r="F31" s="172"/>
       <c r="G31" s="129"/>
-      <c r="H31" s="293"/>
+      <c r="H31" s="275"/>
       <c r="I31" s="148"/>
       <c r="J31" s="129"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="290"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="113"/>
       <c r="D32" s="112"/>
-      <c r="E32" s="311"/>
+      <c r="E32" s="308"/>
       <c r="F32" s="113"/>
       <c r="G32" s="112"/>
-      <c r="H32" s="293"/>
+      <c r="H32" s="275"/>
       <c r="I32" s="113"/>
       <c r="J32" s="112"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="290"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="113"/>
       <c r="D33" s="112"/>
-      <c r="E33" s="311"/>
+      <c r="E33" s="308"/>
       <c r="F33" s="113"/>
       <c r="G33" s="112"/>
-      <c r="H33" s="293"/>
+      <c r="H33" s="275"/>
       <c r="I33" s="113"/>
       <c r="J33" s="112"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="290"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="142"/>
       <c r="D34" s="117"/>
-      <c r="E34" s="311"/>
+      <c r="E34" s="308"/>
       <c r="F34" s="142">
         <v>45562</v>
       </c>
       <c r="G34" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="293"/>
+      <c r="H34" s="275"/>
       <c r="I34" s="142"/>
       <c r="J34" s="117"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="290"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="142"/>
       <c r="D35" s="117"/>
-      <c r="E35" s="311"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="142"/>
       <c r="G35" s="117"/>
-      <c r="H35" s="293"/>
+      <c r="H35" s="275"/>
       <c r="I35" s="142"/>
       <c r="J35" s="117"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="290"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="142"/>
       <c r="D36" s="117"/>
-      <c r="E36" s="311"/>
+      <c r="E36" s="308"/>
       <c r="F36" s="142"/>
       <c r="G36" s="117"/>
-      <c r="H36" s="293"/>
+      <c r="H36" s="275"/>
       <c r="I36" s="142"/>
       <c r="J36" s="117"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="290"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="139"/>
       <c r="D37" s="140"/>
-      <c r="E37" s="311"/>
+      <c r="E37" s="308"/>
       <c r="F37" s="139"/>
       <c r="G37" s="140"/>
-      <c r="H37" s="293"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="139"/>
       <c r="J37" s="140"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="290"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="139"/>
       <c r="D38" s="140"/>
-      <c r="E38" s="311"/>
+      <c r="E38" s="308"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
-      <c r="H38" s="293"/>
+      <c r="H38" s="275"/>
       <c r="I38" s="139"/>
       <c r="J38" s="140"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="290"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="139"/>
       <c r="D39" s="140"/>
-      <c r="E39" s="311"/>
+      <c r="E39" s="308"/>
       <c r="F39" s="139"/>
       <c r="G39" s="140"/>
-      <c r="H39" s="294"/>
+      <c r="H39" s="276"/>
       <c r="I39" s="139"/>
       <c r="J39" s="140"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="280" t="s">
+      <c r="B40" s="288" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -14002,7 +14076,7 @@
       <c r="D40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="286" t="s">
+      <c r="E40" s="267" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="21" t="s">
@@ -14022,10 +14096,10 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="281"/>
+      <c r="B41" s="289"/>
       <c r="C41" s="141"/>
       <c r="D41" s="115"/>
-      <c r="E41" s="287"/>
+      <c r="E41" s="268"/>
       <c r="F41" s="141"/>
       <c r="G41" s="115"/>
       <c r="H41" s="278"/>
@@ -14033,10 +14107,10 @@
       <c r="J41" s="115"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="281"/>
+      <c r="B42" s="289"/>
       <c r="C42" s="141"/>
       <c r="D42" s="115"/>
-      <c r="E42" s="287"/>
+      <c r="E42" s="268"/>
       <c r="F42" s="141"/>
       <c r="G42" s="115"/>
       <c r="H42" s="278"/>
@@ -14044,10 +14118,10 @@
       <c r="J42" s="115"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="281"/>
+      <c r="B43" s="289"/>
       <c r="C43" s="141"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="287"/>
+      <c r="E43" s="268"/>
       <c r="F43" s="141"/>
       <c r="G43" s="115"/>
       <c r="H43" s="278"/>
@@ -14055,10 +14129,10 @@
       <c r="J43" s="115"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="281"/>
+      <c r="B44" s="289"/>
       <c r="C44" s="141"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="287"/>
+      <c r="E44" s="268"/>
       <c r="F44" s="141"/>
       <c r="G44" s="115"/>
       <c r="H44" s="278"/>
@@ -14066,10 +14140,10 @@
       <c r="J44" s="115"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="281"/>
+      <c r="B45" s="289"/>
       <c r="C45" s="113"/>
       <c r="D45" s="112"/>
-      <c r="E45" s="287"/>
+      <c r="E45" s="268"/>
       <c r="F45" s="113"/>
       <c r="G45" s="112"/>
       <c r="H45" s="278"/>
@@ -14077,10 +14151,10 @@
       <c r="J45" s="112"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="281"/>
+      <c r="B46" s="289"/>
       <c r="C46" s="113"/>
       <c r="D46" s="112"/>
-      <c r="E46" s="287"/>
+      <c r="E46" s="268"/>
       <c r="F46" s="113"/>
       <c r="G46" s="112"/>
       <c r="H46" s="278"/>
@@ -14088,10 +14162,10 @@
       <c r="J46" s="112"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="281"/>
+      <c r="B47" s="289"/>
       <c r="C47" s="113"/>
       <c r="D47" s="112"/>
-      <c r="E47" s="287"/>
+      <c r="E47" s="268"/>
       <c r="F47" s="113"/>
       <c r="G47" s="112"/>
       <c r="H47" s="278"/>
@@ -14099,10 +14173,10 @@
       <c r="J47" s="112"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="281"/>
+      <c r="B48" s="289"/>
       <c r="C48" s="142"/>
       <c r="D48" s="117"/>
-      <c r="E48" s="287"/>
+      <c r="E48" s="268"/>
       <c r="F48" s="142"/>
       <c r="G48" s="117"/>
       <c r="H48" s="278"/>
@@ -14110,10 +14184,10 @@
       <c r="J48" s="117"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="281"/>
+      <c r="B49" s="289"/>
       <c r="C49" s="142"/>
       <c r="D49" s="117"/>
-      <c r="E49" s="287"/>
+      <c r="E49" s="268"/>
       <c r="F49" s="142"/>
       <c r="G49" s="117"/>
       <c r="H49" s="278"/>
@@ -14121,10 +14195,10 @@
       <c r="J49" s="117"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="281"/>
+      <c r="B50" s="289"/>
       <c r="C50" s="139"/>
       <c r="D50" s="140"/>
-      <c r="E50" s="287"/>
+      <c r="E50" s="268"/>
       <c r="F50" s="139"/>
       <c r="G50" s="140"/>
       <c r="H50" s="278"/>
@@ -14132,10 +14206,10 @@
       <c r="J50" s="140"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="281"/>
+      <c r="B51" s="289"/>
       <c r="C51" s="139"/>
       <c r="D51" s="140"/>
-      <c r="E51" s="287"/>
+      <c r="E51" s="268"/>
       <c r="F51" s="139"/>
       <c r="G51" s="140"/>
       <c r="H51" s="278"/>
@@ -14143,10 +14217,10 @@
       <c r="J51" s="140"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="282"/>
+      <c r="B52" s="290"/>
       <c r="C52" s="139"/>
       <c r="D52" s="140"/>
-      <c r="E52" s="295"/>
+      <c r="E52" s="280"/>
       <c r="F52" s="139"/>
       <c r="G52" s="140"/>
       <c r="H52" s="279"/>
@@ -14154,7 +14228,7 @@
       <c r="J52" s="140"/>
     </row>
     <row r="53" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="283" t="s">
+      <c r="B53" s="264" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -14163,7 +14237,7 @@
       <c r="D53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="288" t="s">
+      <c r="E53" s="269" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -14172,7 +14246,7 @@
       <c r="G53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="286" t="s">
+      <c r="H53" s="267" t="s">
         <v>35</v>
       </c>
       <c r="I53" s="21" t="s">
@@ -14183,160 +14257,160 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="284"/>
+      <c r="B54" s="265"/>
       <c r="C54" s="131">
         <v>45327</v>
       </c>
       <c r="D54" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="289"/>
+      <c r="E54" s="270"/>
       <c r="F54" s="141"/>
       <c r="G54" s="115"/>
-      <c r="H54" s="287"/>
+      <c r="H54" s="268"/>
       <c r="I54" s="141"/>
       <c r="J54" s="115"/>
     </row>
     <row r="55" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="284"/>
+      <c r="B55" s="265"/>
       <c r="C55" s="131">
         <v>45372</v>
       </c>
       <c r="D55" s="115">
         <v>20</v>
       </c>
-      <c r="E55" s="289"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="141"/>
       <c r="G55" s="115"/>
-      <c r="H55" s="287"/>
+      <c r="H55" s="268"/>
       <c r="I55" s="141"/>
       <c r="J55" s="115"/>
     </row>
     <row r="56" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="284"/>
+      <c r="B56" s="265"/>
       <c r="C56" s="131"/>
       <c r="D56" s="115"/>
-      <c r="E56" s="289"/>
+      <c r="E56" s="270"/>
       <c r="F56" s="141"/>
       <c r="G56" s="115"/>
-      <c r="H56" s="287"/>
+      <c r="H56" s="268"/>
       <c r="I56" s="141"/>
       <c r="J56" s="115"/>
     </row>
     <row r="57" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="284"/>
+      <c r="B57" s="265"/>
       <c r="C57" s="131"/>
       <c r="D57" s="115"/>
-      <c r="E57" s="289"/>
+      <c r="E57" s="270"/>
       <c r="F57" s="141"/>
       <c r="G57" s="115"/>
-      <c r="H57" s="287"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="141"/>
       <c r="J57" s="115"/>
     </row>
     <row r="58" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="284"/>
+      <c r="B58" s="265"/>
       <c r="C58" s="179"/>
       <c r="D58" s="129">
         <v>20</v>
       </c>
-      <c r="E58" s="289"/>
+      <c r="E58" s="270"/>
       <c r="F58" s="148"/>
       <c r="G58" s="129"/>
-      <c r="H58" s="287"/>
+      <c r="H58" s="268"/>
       <c r="I58" s="148"/>
       <c r="J58" s="129"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="284"/>
+      <c r="B59" s="265"/>
       <c r="C59" s="179"/>
       <c r="D59" s="129"/>
-      <c r="E59" s="289"/>
+      <c r="E59" s="270"/>
       <c r="F59" s="148"/>
       <c r="G59" s="129"/>
-      <c r="H59" s="287"/>
+      <c r="H59" s="268"/>
       <c r="I59" s="148"/>
       <c r="J59" s="129"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="284"/>
+      <c r="B60" s="265"/>
       <c r="C60" s="120"/>
       <c r="D60" s="112"/>
-      <c r="E60" s="289"/>
+      <c r="E60" s="270"/>
       <c r="F60" s="113"/>
       <c r="G60" s="112"/>
-      <c r="H60" s="287"/>
+      <c r="H60" s="268"/>
       <c r="I60" s="113"/>
       <c r="J60" s="112"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="284"/>
+      <c r="B61" s="265"/>
       <c r="C61" s="132"/>
       <c r="D61" s="117"/>
-      <c r="E61" s="289"/>
+      <c r="E61" s="270"/>
       <c r="F61" s="142"/>
       <c r="G61" s="117"/>
-      <c r="H61" s="287"/>
+      <c r="H61" s="268"/>
       <c r="I61" s="142"/>
       <c r="J61" s="117"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="284"/>
+      <c r="B62" s="265"/>
       <c r="C62" s="132"/>
       <c r="D62" s="117"/>
-      <c r="E62" s="289"/>
+      <c r="E62" s="270"/>
       <c r="F62" s="142"/>
       <c r="G62" s="117"/>
-      <c r="H62" s="287"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="142"/>
       <c r="J62" s="117"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="284"/>
+      <c r="B63" s="265"/>
       <c r="C63" s="132"/>
       <c r="D63" s="117"/>
-      <c r="E63" s="289"/>
+      <c r="E63" s="270"/>
       <c r="F63" s="142"/>
       <c r="G63" s="117"/>
-      <c r="H63" s="287"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="142"/>
       <c r="J63" s="117"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="284"/>
+      <c r="B64" s="265"/>
       <c r="C64" s="170"/>
       <c r="D64" s="140"/>
-      <c r="E64" s="289"/>
+      <c r="E64" s="270"/>
       <c r="F64" s="139"/>
       <c r="G64" s="140"/>
-      <c r="H64" s="287"/>
+      <c r="H64" s="268"/>
       <c r="I64" s="139"/>
       <c r="J64" s="140"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="284"/>
+      <c r="B65" s="265"/>
       <c r="C65" s="170"/>
       <c r="D65" s="140"/>
-      <c r="E65" s="289"/>
+      <c r="E65" s="270"/>
       <c r="F65" s="139"/>
       <c r="G65" s="140"/>
-      <c r="H65" s="287"/>
+      <c r="H65" s="268"/>
       <c r="I65" s="139"/>
       <c r="J65" s="140"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="285"/>
+      <c r="B66" s="266"/>
       <c r="C66" s="170"/>
       <c r="D66" s="140"/>
       <c r="E66" s="296"/>
       <c r="F66" s="139"/>
       <c r="G66" s="140"/>
-      <c r="H66" s="295"/>
+      <c r="H66" s="280"/>
       <c r="I66" s="139"/>
       <c r="J66" s="140"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="290" t="s">
+      <c r="B67" s="272" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -14345,7 +14419,7 @@
       <c r="D67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="291" t="s">
+      <c r="E67" s="273" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="21" t="s">
@@ -14354,7 +14428,7 @@
       <c r="G67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="292" t="s">
+      <c r="H67" s="274" t="s">
         <v>37</v>
       </c>
       <c r="I67" s="21" t="s">
@@ -14365,202 +14439,207 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="290"/>
+      <c r="B68" s="272"/>
       <c r="C68" s="141"/>
       <c r="D68" s="115"/>
-      <c r="E68" s="291"/>
+      <c r="E68" s="273"/>
       <c r="F68" s="143"/>
       <c r="G68" s="115"/>
-      <c r="H68" s="293"/>
+      <c r="H68" s="275"/>
       <c r="I68" s="141"/>
       <c r="J68" s="115"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="290"/>
+      <c r="B69" s="272"/>
       <c r="C69" s="141"/>
       <c r="D69" s="115"/>
-      <c r="E69" s="291"/>
+      <c r="E69" s="273"/>
       <c r="F69" s="143"/>
       <c r="G69" s="115"/>
-      <c r="H69" s="293"/>
+      <c r="H69" s="275"/>
       <c r="I69" s="141"/>
       <c r="J69" s="115"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="290"/>
+      <c r="B70" s="272"/>
       <c r="C70" s="141"/>
       <c r="D70" s="115"/>
-      <c r="E70" s="291"/>
+      <c r="E70" s="273"/>
       <c r="F70" s="143"/>
       <c r="G70" s="115"/>
-      <c r="H70" s="293"/>
+      <c r="H70" s="275"/>
       <c r="I70" s="141"/>
       <c r="J70" s="115"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="290"/>
+      <c r="B71" s="272"/>
       <c r="C71" s="141"/>
       <c r="D71" s="115"/>
-      <c r="E71" s="291"/>
+      <c r="E71" s="273"/>
       <c r="F71" s="143"/>
       <c r="G71" s="115"/>
-      <c r="H71" s="293"/>
+      <c r="H71" s="275"/>
       <c r="I71" s="141"/>
       <c r="J71" s="115"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="290"/>
+      <c r="B72" s="272"/>
       <c r="C72" s="172"/>
       <c r="D72" s="158"/>
-      <c r="E72" s="291"/>
+      <c r="E72" s="273"/>
       <c r="F72" s="148"/>
       <c r="G72" s="129"/>
-      <c r="H72" s="293"/>
+      <c r="H72" s="275"/>
       <c r="I72" s="148"/>
       <c r="J72" s="129"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="290"/>
+      <c r="B73" s="272"/>
       <c r="C73" s="148"/>
       <c r="D73" s="129"/>
-      <c r="E73" s="291"/>
+      <c r="E73" s="273"/>
       <c r="F73" s="148"/>
       <c r="G73" s="129"/>
-      <c r="H73" s="293"/>
+      <c r="H73" s="275"/>
       <c r="I73" s="148"/>
       <c r="J73" s="129"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="290"/>
+      <c r="B74" s="272"/>
       <c r="C74" s="113"/>
       <c r="D74" s="112"/>
-      <c r="E74" s="291"/>
+      <c r="E74" s="273"/>
       <c r="F74" s="113"/>
       <c r="G74" s="112"/>
-      <c r="H74" s="293"/>
+      <c r="H74" s="275"/>
       <c r="I74" s="113"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="290"/>
+      <c r="B75" s="272"/>
       <c r="C75" s="148"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="291"/>
+      <c r="E75" s="273"/>
       <c r="F75" s="148"/>
       <c r="G75" s="129"/>
-      <c r="H75" s="293"/>
+      <c r="H75" s="275"/>
       <c r="I75" s="148"/>
       <c r="J75" s="129"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="290"/>
+      <c r="B76" s="272"/>
       <c r="C76" s="142">
         <v>45503</v>
       </c>
       <c r="D76" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="291"/>
+      <c r="E76" s="273"/>
       <c r="F76" s="142"/>
       <c r="G76" s="117"/>
-      <c r="H76" s="293"/>
+      <c r="H76" s="275"/>
       <c r="I76" s="142"/>
       <c r="J76" s="117"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="290"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="142">
         <v>45581</v>
       </c>
       <c r="D77" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="291"/>
+      <c r="E77" s="273"/>
       <c r="F77" s="142"/>
       <c r="G77" s="117"/>
-      <c r="H77" s="293"/>
+      <c r="H77" s="275"/>
       <c r="I77" s="142"/>
       <c r="J77" s="117"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="290"/>
+      <c r="B78" s="272"/>
       <c r="C78" s="142"/>
       <c r="D78" s="117"/>
-      <c r="E78" s="291"/>
+      <c r="E78" s="273"/>
       <c r="F78" s="142"/>
       <c r="G78" s="117"/>
-      <c r="H78" s="293"/>
+      <c r="H78" s="275"/>
       <c r="I78" s="142"/>
       <c r="J78" s="117"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="290"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="142"/>
       <c r="D79" s="117"/>
-      <c r="E79" s="291"/>
+      <c r="E79" s="273"/>
       <c r="F79" s="142"/>
       <c r="G79" s="117"/>
-      <c r="H79" s="293"/>
+      <c r="H79" s="275"/>
       <c r="I79" s="142"/>
       <c r="J79" s="117"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="290"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="149"/>
       <c r="D80" s="114"/>
-      <c r="E80" s="291"/>
+      <c r="E80" s="273"/>
       <c r="F80" s="149"/>
       <c r="G80" s="114"/>
-      <c r="H80" s="293"/>
+      <c r="H80" s="275"/>
       <c r="I80" s="149"/>
       <c r="J80" s="114"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="290"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="149"/>
       <c r="D81" s="114"/>
-      <c r="E81" s="291"/>
+      <c r="E81" s="273"/>
       <c r="F81" s="149"/>
       <c r="G81" s="114"/>
-      <c r="H81" s="293"/>
+      <c r="H81" s="275"/>
       <c r="I81" s="149"/>
       <c r="J81" s="114"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="290"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="149"/>
       <c r="D82" s="114"/>
-      <c r="E82" s="291"/>
+      <c r="E82" s="273"/>
       <c r="F82" s="149"/>
       <c r="G82" s="114"/>
-      <c r="H82" s="293"/>
+      <c r="H82" s="275"/>
       <c r="I82" s="149"/>
       <c r="J82" s="114"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="290"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="149"/>
       <c r="D83" s="114"/>
-      <c r="E83" s="291"/>
+      <c r="E83" s="273"/>
       <c r="F83" s="149"/>
       <c r="G83" s="114"/>
-      <c r="H83" s="293"/>
+      <c r="H83" s="275"/>
       <c r="I83" s="149"/>
       <c r="J83" s="114"/>
     </row>
     <row r="84" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="290"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="149"/>
       <c r="D84" s="114"/>
-      <c r="E84" s="291"/>
+      <c r="E84" s="273"/>
       <c r="F84" s="149"/>
       <c r="G84" s="114"/>
-      <c r="H84" s="294"/>
+      <c r="H84" s="276"/>
       <c r="I84" s="149"/>
       <c r="J84" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B67:B84"/>
+    <mergeCell ref="E67:E84"/>
+    <mergeCell ref="H67:H84"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="B25:B39"/>
     <mergeCell ref="B2:C6"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="D2:J3"/>
@@ -14576,11 +14655,6 @@
     <mergeCell ref="H40:H52"/>
     <mergeCell ref="B40:B52"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B67:B84"/>
-    <mergeCell ref="E67:E84"/>
-    <mergeCell ref="H67:H84"/>
-    <mergeCell ref="B53:B66"/>
-    <mergeCell ref="B25:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14613,56 +14687,56 @@
     <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="321"/>
       <c r="C2" s="322"/>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="323"/>
       <c r="C3" s="324"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="323"/>
       <c r="C4" s="324"/>
-      <c r="D4" s="264" t="s">
+      <c r="D4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="323"/>
       <c r="C5" s="324"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
@@ -14682,22 +14756,22 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="333" t="s">
+      <c r="B7" s="336" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="334"/>
-      <c r="J7" s="335"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="338"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="308" t="s">
+      <c r="B8" s="309" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -14715,7 +14789,7 @@
       <c r="G8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="280" t="s">
+      <c r="H8" s="288" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -14726,7 +14800,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="309"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="131">
         <v>45348</v>
       </c>
@@ -14740,12 +14814,12 @@
       <c r="G9" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="281"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="143"/>
       <c r="J9" s="115"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="309"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="131">
         <v>45369</v>
       </c>
@@ -14759,12 +14833,12 @@
       <c r="G10" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="281"/>
+      <c r="H10" s="289"/>
       <c r="I10" s="143"/>
       <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="309"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="131">
         <v>45414</v>
       </c>
@@ -14778,12 +14852,12 @@
       <c r="G11" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="281"/>
+      <c r="H11" s="289"/>
       <c r="I11" s="169"/>
       <c r="J11" s="115"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="309"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="131"/>
       <c r="D12" s="115"/>
       <c r="E12" s="278"/>
@@ -14793,12 +14867,12 @@
       <c r="G12" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="281"/>
+      <c r="H12" s="289"/>
       <c r="I12" s="131"/>
       <c r="J12" s="115"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="309"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="120"/>
       <c r="D13" s="112" t="s">
         <v>114</v>
@@ -14810,12 +14884,12 @@
       <c r="G13" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="281"/>
+      <c r="H13" s="289"/>
       <c r="I13" s="120"/>
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="309"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="120">
         <v>45530</v>
       </c>
@@ -14829,12 +14903,12 @@
       <c r="G14" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="281"/>
+      <c r="H14" s="289"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="309"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="120">
         <v>45597</v>
       </c>
@@ -14844,23 +14918,23 @@
       <c r="E15" s="278"/>
       <c r="F15" s="120"/>
       <c r="G15" s="112"/>
-      <c r="H15" s="281"/>
+      <c r="H15" s="289"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="309"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="120"/>
       <c r="D16" s="112"/>
       <c r="E16" s="278"/>
       <c r="F16" s="120"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="281"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="112"/>
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="309"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="132"/>
       <c r="D17" s="117"/>
       <c r="E17" s="278"/>
@@ -14870,12 +14944,12 @@
       <c r="G17" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="281"/>
+      <c r="H17" s="289"/>
       <c r="I17" s="117"/>
       <c r="J17" s="117"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="309"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="132"/>
       <c r="D18" s="117"/>
       <c r="E18" s="278"/>
@@ -14885,12 +14959,12 @@
       <c r="G18" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="281"/>
+      <c r="H18" s="289"/>
       <c r="I18" s="117"/>
       <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="309"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="132"/>
       <c r="D19" s="117"/>
       <c r="E19" s="278"/>
@@ -14900,12 +14974,12 @@
       <c r="G19" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="281"/>
+      <c r="H19" s="289"/>
       <c r="I19" s="117"/>
       <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="309"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="170"/>
       <c r="D20" s="140"/>
       <c r="E20" s="278"/>
@@ -14915,34 +14989,34 @@
       <c r="G20" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="281"/>
+      <c r="H20" s="289"/>
       <c r="I20" s="140"/>
       <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="309"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="170"/>
       <c r="D21" s="140"/>
       <c r="E21" s="278"/>
       <c r="F21" s="170"/>
       <c r="G21" s="140"/>
-      <c r="H21" s="281"/>
+      <c r="H21" s="289"/>
       <c r="I21" s="140"/>
       <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="310"/>
+      <c r="B22" s="311"/>
       <c r="C22" s="170"/>
       <c r="D22" s="140"/>
       <c r="E22" s="278"/>
       <c r="F22" s="170"/>
       <c r="G22" s="140"/>
-      <c r="H22" s="282"/>
+      <c r="H22" s="290"/>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="271" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -14969,7 +15043,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="269"/>
+      <c r="B24" s="271"/>
       <c r="C24" s="143"/>
       <c r="D24" s="115"/>
       <c r="E24" s="278"/>
@@ -14980,7 +15054,7 @@
       <c r="J24" s="115"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="269"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="143"/>
       <c r="D25" s="115"/>
       <c r="E25" s="278"/>
@@ -14991,7 +15065,7 @@
       <c r="J25" s="115"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="269"/>
+      <c r="B26" s="271"/>
       <c r="C26" s="169"/>
       <c r="D26" s="115"/>
       <c r="E26" s="278"/>
@@ -15002,7 +15076,7 @@
       <c r="J26" s="115"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="269"/>
+      <c r="B27" s="271"/>
       <c r="C27" s="131"/>
       <c r="D27" s="115"/>
       <c r="E27" s="278"/>
@@ -15013,7 +15087,7 @@
       <c r="J27" s="115"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="269"/>
+      <c r="B28" s="271"/>
       <c r="C28" s="120"/>
       <c r="D28" s="112"/>
       <c r="E28" s="278"/>
@@ -15024,7 +15098,7 @@
       <c r="J28" s="112"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="269"/>
+      <c r="B29" s="271"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
       <c r="E29" s="278"/>
@@ -15035,7 +15109,7 @@
       <c r="J29" s="112"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="269"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="112"/>
       <c r="D30" s="112"/>
       <c r="E30" s="278"/>
@@ -15046,7 +15120,7 @@
       <c r="J30" s="112"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="269"/>
+      <c r="B31" s="271"/>
       <c r="C31" s="117"/>
       <c r="D31" s="117"/>
       <c r="E31" s="278"/>
@@ -15057,7 +15131,7 @@
       <c r="J31" s="117"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="269"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="117"/>
       <c r="D32" s="117"/>
       <c r="E32" s="278"/>
@@ -15068,7 +15142,7 @@
       <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="269"/>
+      <c r="B33" s="271"/>
       <c r="C33" s="139"/>
       <c r="D33" s="140"/>
       <c r="E33" s="278"/>
@@ -15079,7 +15153,7 @@
       <c r="J33" s="146"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="269"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="139"/>
       <c r="D34" s="140"/>
       <c r="E34" s="278"/>
@@ -15090,7 +15164,7 @@
       <c r="J34" s="146"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="269"/>
+      <c r="B35" s="271"/>
       <c r="C35" s="139"/>
       <c r="D35" s="140"/>
       <c r="E35" s="279"/>
@@ -15101,7 +15175,7 @@
       <c r="J35" s="146"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="273" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -15110,7 +15184,7 @@
       <c r="D36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="290" t="s">
+      <c r="E36" s="272" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="21" t="s">
@@ -15119,7 +15193,7 @@
       <c r="G36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="292" t="s">
+      <c r="H36" s="274" t="s">
         <v>31</v>
       </c>
       <c r="I36" s="21" t="s">
@@ -15130,13 +15204,13 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="291"/>
+      <c r="B37" s="273"/>
       <c r="C37" s="42"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="290"/>
+      <c r="E37" s="272"/>
       <c r="F37" s="42"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="293"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="197">
         <v>45372</v>
       </c>
@@ -15145,161 +15219,161 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="291"/>
+      <c r="B38" s="273"/>
       <c r="C38" s="42"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="290"/>
+      <c r="E38" s="272"/>
       <c r="F38" s="42"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="293"/>
+      <c r="H38" s="275"/>
       <c r="I38" s="197"/>
       <c r="J38" s="198"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="291"/>
+      <c r="B39" s="273"/>
       <c r="C39" s="42"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="290"/>
+      <c r="E39" s="272"/>
       <c r="F39" s="42"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="293"/>
+      <c r="H39" s="275"/>
       <c r="I39" s="197"/>
       <c r="J39" s="198"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="291"/>
+      <c r="B40" s="273"/>
       <c r="C40" s="42"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="290"/>
+      <c r="E40" s="272"/>
       <c r="F40" s="42"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="293"/>
+      <c r="H40" s="275"/>
       <c r="I40" s="197"/>
       <c r="J40" s="198"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="291"/>
+      <c r="B41" s="273"/>
       <c r="C41" s="120"/>
       <c r="D41" s="112"/>
-      <c r="E41" s="290"/>
+      <c r="E41" s="272"/>
       <c r="F41" s="120"/>
       <c r="G41" s="112"/>
-      <c r="H41" s="293"/>
+      <c r="H41" s="275"/>
       <c r="I41" s="179"/>
       <c r="J41" s="158"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="291"/>
+      <c r="B42" s="273"/>
       <c r="C42" s="120"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="290"/>
+      <c r="E42" s="272"/>
       <c r="F42" s="112"/>
       <c r="G42" s="112"/>
-      <c r="H42" s="293"/>
+      <c r="H42" s="275"/>
       <c r="I42" s="179"/>
       <c r="J42" s="158"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="291"/>
+      <c r="B43" s="273"/>
       <c r="C43" s="112"/>
       <c r="D43" s="112"/>
-      <c r="E43" s="290"/>
+      <c r="E43" s="272"/>
       <c r="F43" s="112"/>
       <c r="G43" s="112"/>
-      <c r="H43" s="293"/>
+      <c r="H43" s="275"/>
       <c r="I43" s="179"/>
       <c r="J43" s="158"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="291"/>
+      <c r="B44" s="273"/>
       <c r="C44" s="120"/>
       <c r="D44" s="112"/>
-      <c r="E44" s="290"/>
+      <c r="E44" s="272"/>
       <c r="F44" s="120"/>
       <c r="G44" s="112"/>
-      <c r="H44" s="293"/>
+      <c r="H44" s="275"/>
       <c r="I44" s="179"/>
       <c r="J44" s="158"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="291"/>
+      <c r="B45" s="273"/>
       <c r="C45" s="132"/>
       <c r="D45" s="117"/>
-      <c r="E45" s="290"/>
+      <c r="E45" s="272"/>
       <c r="F45" s="117"/>
       <c r="G45" s="117"/>
-      <c r="H45" s="293"/>
+      <c r="H45" s="275"/>
       <c r="I45" s="173"/>
       <c r="J45" s="162"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="291"/>
+      <c r="B46" s="273"/>
       <c r="C46" s="132"/>
       <c r="D46" s="117"/>
-      <c r="E46" s="290"/>
+      <c r="E46" s="272"/>
       <c r="F46" s="117"/>
       <c r="G46" s="117"/>
-      <c r="H46" s="293"/>
+      <c r="H46" s="275"/>
       <c r="I46" s="173"/>
       <c r="J46" s="162"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="291"/>
+      <c r="B47" s="273"/>
       <c r="C47" s="132"/>
       <c r="D47" s="117"/>
-      <c r="E47" s="290"/>
+      <c r="E47" s="272"/>
       <c r="F47" s="117"/>
       <c r="G47" s="117"/>
-      <c r="H47" s="293"/>
+      <c r="H47" s="275"/>
       <c r="I47" s="173"/>
       <c r="J47" s="162"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="291"/>
+      <c r="B48" s="273"/>
       <c r="C48" s="117"/>
       <c r="D48" s="117"/>
-      <c r="E48" s="290"/>
+      <c r="E48" s="272"/>
       <c r="F48" s="117"/>
       <c r="G48" s="117"/>
-      <c r="H48" s="293"/>
+      <c r="H48" s="275"/>
       <c r="I48" s="173"/>
       <c r="J48" s="162"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="291"/>
+      <c r="B49" s="273"/>
       <c r="C49" s="139"/>
       <c r="D49" s="140"/>
-      <c r="E49" s="290"/>
+      <c r="E49" s="272"/>
       <c r="F49" s="139"/>
       <c r="G49" s="140"/>
-      <c r="H49" s="293"/>
+      <c r="H49" s="275"/>
       <c r="I49" s="154"/>
       <c r="J49" s="152"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="291"/>
+      <c r="B50" s="273"/>
       <c r="C50" s="139"/>
       <c r="D50" s="140"/>
-      <c r="E50" s="290"/>
+      <c r="E50" s="272"/>
       <c r="F50" s="139"/>
       <c r="G50" s="140"/>
-      <c r="H50" s="293"/>
+      <c r="H50" s="275"/>
       <c r="I50" s="154"/>
       <c r="J50" s="152"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="291"/>
+      <c r="B51" s="273"/>
       <c r="C51" s="139"/>
       <c r="D51" s="140"/>
-      <c r="E51" s="290"/>
+      <c r="E51" s="272"/>
       <c r="F51" s="139"/>
       <c r="G51" s="140"/>
-      <c r="H51" s="294"/>
+      <c r="H51" s="276"/>
       <c r="I51" s="154"/>
       <c r="J51" s="152"/>
     </row>
     <row r="52" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="280" t="s">
+      <c r="B52" s="288" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -15317,7 +15391,7 @@
       <c r="G52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="286" t="s">
+      <c r="H52" s="267" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="21" t="s">
@@ -15328,7 +15402,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="281"/>
+      <c r="B53" s="289"/>
       <c r="C53" s="7">
         <v>45327</v>
       </c>
@@ -15338,45 +15412,45 @@
       <c r="E53" s="278"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="287"/>
+      <c r="H53" s="268"/>
       <c r="I53" s="43"/>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="281"/>
+      <c r="B54" s="289"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
       <c r="E54" s="278"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="287"/>
+      <c r="H54" s="268"/>
       <c r="I54" s="43"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="281"/>
+      <c r="B55" s="289"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="278"/>
       <c r="F55" s="7"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="287"/>
+      <c r="H55" s="268"/>
       <c r="I55" s="43"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="281"/>
+      <c r="B56" s="289"/>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="278"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="287"/>
+      <c r="H56" s="268"/>
       <c r="I56" s="43"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="281"/>
+      <c r="B57" s="289"/>
       <c r="C57" s="120"/>
       <c r="D57" s="112">
         <v>30</v>
@@ -15384,12 +15458,12 @@
       <c r="E57" s="278"/>
       <c r="F57" s="120"/>
       <c r="G57" s="112"/>
-      <c r="H57" s="287"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="120"/>
       <c r="J57" s="112"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="281"/>
+      <c r="B58" s="289"/>
       <c r="C58" s="120">
         <v>45491</v>
       </c>
@@ -15399,34 +15473,34 @@
       <c r="E58" s="278"/>
       <c r="F58" s="112"/>
       <c r="G58" s="112"/>
-      <c r="H58" s="287"/>
+      <c r="H58" s="268"/>
       <c r="I58" s="112"/>
       <c r="J58" s="112"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="281"/>
+      <c r="B59" s="289"/>
       <c r="C59" s="120"/>
       <c r="D59" s="112"/>
       <c r="E59" s="278"/>
       <c r="F59" s="112"/>
       <c r="G59" s="112"/>
-      <c r="H59" s="287"/>
+      <c r="H59" s="268"/>
       <c r="I59" s="112"/>
       <c r="J59" s="112"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="281"/>
+      <c r="B60" s="289"/>
       <c r="C60" s="120"/>
       <c r="D60" s="112"/>
       <c r="E60" s="278"/>
       <c r="F60" s="120"/>
       <c r="G60" s="112"/>
-      <c r="H60" s="287"/>
+      <c r="H60" s="268"/>
       <c r="I60" s="120"/>
       <c r="J60" s="112"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="281"/>
+      <c r="B61" s="289"/>
       <c r="C61" s="132">
         <v>45505</v>
       </c>
@@ -15436,12 +15510,12 @@
       <c r="E61" s="278"/>
       <c r="F61" s="117"/>
       <c r="G61" s="117"/>
-      <c r="H61" s="287"/>
+      <c r="H61" s="268"/>
       <c r="I61" s="117"/>
       <c r="J61" s="117"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="281"/>
+      <c r="B62" s="289"/>
       <c r="C62" s="132">
         <v>45516</v>
       </c>
@@ -15451,12 +15525,12 @@
       <c r="E62" s="278"/>
       <c r="F62" s="117"/>
       <c r="G62" s="117"/>
-      <c r="H62" s="287"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="117"/>
       <c r="J62" s="117"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="281"/>
+      <c r="B63" s="289"/>
       <c r="C63" s="132">
         <v>45545</v>
       </c>
@@ -15466,56 +15540,56 @@
       <c r="E63" s="278"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
-      <c r="H63" s="287"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="117"/>
       <c r="J63" s="117"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="281"/>
+      <c r="B64" s="289"/>
       <c r="C64" s="132"/>
       <c r="D64" s="117"/>
       <c r="E64" s="278"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
-      <c r="H64" s="287"/>
+      <c r="H64" s="268"/>
       <c r="I64" s="117"/>
       <c r="J64" s="117"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="281"/>
+      <c r="B65" s="289"/>
       <c r="C65" s="189"/>
       <c r="D65" s="140"/>
       <c r="E65" s="278"/>
       <c r="F65" s="170"/>
       <c r="G65" s="140"/>
-      <c r="H65" s="287"/>
+      <c r="H65" s="268"/>
       <c r="I65" s="139"/>
       <c r="J65" s="140"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="281"/>
+      <c r="B66" s="289"/>
       <c r="C66" s="170"/>
       <c r="D66" s="170"/>
       <c r="E66" s="278"/>
       <c r="F66" s="170"/>
       <c r="G66" s="140"/>
-      <c r="H66" s="287"/>
+      <c r="H66" s="268"/>
       <c r="I66" s="139"/>
       <c r="J66" s="140"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="282"/>
+      <c r="B67" s="290"/>
       <c r="C67" s="170"/>
       <c r="D67" s="140"/>
       <c r="E67" s="279"/>
       <c r="F67" s="170"/>
       <c r="G67" s="140"/>
-      <c r="H67" s="295"/>
+      <c r="H67" s="280"/>
       <c r="I67" s="139"/>
       <c r="J67" s="140"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="290" t="s">
+      <c r="B68" s="272" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -15533,7 +15607,7 @@
       <c r="G68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="336" t="s">
+      <c r="H68" s="333" t="s">
         <v>57</v>
       </c>
       <c r="I68" s="21" t="s">
@@ -15544,161 +15618,161 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="290"/>
+      <c r="B69" s="272"/>
       <c r="C69" s="10"/>
       <c r="D69" s="6"/>
       <c r="E69" s="300"/>
       <c r="F69" s="10"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="337"/>
+      <c r="H69" s="334"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="290"/>
+      <c r="B70" s="272"/>
       <c r="C70" s="10"/>
       <c r="D70" s="6"/>
       <c r="E70" s="300"/>
       <c r="F70" s="10"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="337"/>
+      <c r="H70" s="334"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="290"/>
+      <c r="B71" s="272"/>
       <c r="C71" s="10"/>
       <c r="D71" s="6"/>
       <c r="E71" s="300"/>
       <c r="F71" s="10"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="337"/>
+      <c r="H71" s="334"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="290"/>
+      <c r="B72" s="272"/>
       <c r="C72" s="10"/>
       <c r="D72" s="6"/>
       <c r="E72" s="300"/>
       <c r="F72" s="10"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="337"/>
+      <c r="H72" s="334"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="290"/>
+      <c r="B73" s="272"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="300"/>
       <c r="F73" s="10"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="337"/>
+      <c r="H73" s="334"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="290"/>
+      <c r="B74" s="272"/>
       <c r="C74" s="120"/>
       <c r="D74" s="112"/>
       <c r="E74" s="300"/>
       <c r="F74" s="120"/>
       <c r="G74" s="112"/>
-      <c r="H74" s="337"/>
+      <c r="H74" s="334"/>
       <c r="I74" s="120"/>
       <c r="J74" s="112"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="290"/>
+      <c r="B75" s="272"/>
       <c r="C75" s="120"/>
       <c r="D75" s="112"/>
       <c r="E75" s="300"/>
       <c r="F75" s="112"/>
       <c r="G75" s="112"/>
-      <c r="H75" s="337"/>
+      <c r="H75" s="334"/>
       <c r="I75" s="112"/>
       <c r="J75" s="112"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="290"/>
+      <c r="B76" s="272"/>
       <c r="C76" s="112"/>
       <c r="D76" s="112"/>
       <c r="E76" s="300"/>
       <c r="F76" s="112"/>
       <c r="G76" s="112"/>
-      <c r="H76" s="337"/>
+      <c r="H76" s="334"/>
       <c r="I76" s="112"/>
       <c r="J76" s="112"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="290"/>
+      <c r="B77" s="272"/>
       <c r="C77" s="132"/>
       <c r="D77" s="117"/>
       <c r="E77" s="300"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
-      <c r="H77" s="337"/>
+      <c r="H77" s="334"/>
       <c r="I77" s="117"/>
       <c r="J77" s="117"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="290"/>
+      <c r="B78" s="272"/>
       <c r="C78" s="117"/>
       <c r="D78" s="117"/>
       <c r="E78" s="300"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
-      <c r="H78" s="337"/>
+      <c r="H78" s="334"/>
       <c r="I78" s="117"/>
       <c r="J78" s="117"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="290"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="117"/>
       <c r="D79" s="117"/>
       <c r="E79" s="300"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
-      <c r="H79" s="337"/>
+      <c r="H79" s="334"/>
       <c r="I79" s="117"/>
       <c r="J79" s="117"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="290"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="170"/>
       <c r="D80" s="140"/>
       <c r="E80" s="300"/>
       <c r="F80" s="151"/>
       <c r="G80" s="140"/>
-      <c r="H80" s="337"/>
+      <c r="H80" s="334"/>
       <c r="I80" s="140"/>
       <c r="J80" s="140"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="290"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="170"/>
       <c r="D81" s="140"/>
       <c r="E81" s="300"/>
       <c r="F81" s="151"/>
       <c r="G81" s="140"/>
-      <c r="H81" s="337"/>
+      <c r="H81" s="334"/>
       <c r="I81" s="140"/>
       <c r="J81" s="140"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="290"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="170"/>
       <c r="D82" s="140"/>
       <c r="E82" s="300"/>
       <c r="F82" s="140"/>
       <c r="G82" s="140"/>
-      <c r="H82" s="338"/>
+      <c r="H82" s="335"/>
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="271" t="s">
+      <c r="B83" s="282" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="21" t="s">
@@ -15709,52 +15783,60 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="272"/>
+      <c r="B84" s="283"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="272"/>
+      <c r="B85" s="283"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="272"/>
+      <c r="B86" s="283"/>
       <c r="C86" s="120"/>
       <c r="D86" s="112"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="272"/>
+      <c r="B87" s="283"/>
       <c r="C87" s="112"/>
       <c r="D87" s="112"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="272"/>
+      <c r="B88" s="283"/>
       <c r="C88" s="112"/>
       <c r="D88" s="112"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="272"/>
+      <c r="B89" s="283"/>
       <c r="C89" s="135"/>
       <c r="D89" s="135"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="272"/>
+      <c r="B90" s="283"/>
       <c r="C90" s="144"/>
       <c r="D90" s="117"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="272"/>
+      <c r="B91" s="283"/>
       <c r="C91" s="151"/>
       <c r="D91" s="140"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="273"/>
+      <c r="B92" s="284"/>
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="E8:E35"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="H8:H22"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B2:C6"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B68:B82"/>
     <mergeCell ref="E68:E82"/>
@@ -15767,14 +15849,6 @@
     <mergeCell ref="B52:B67"/>
     <mergeCell ref="E52:E67"/>
     <mergeCell ref="H52:H67"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="E8:E35"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="H8:H22"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B2:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
+++ b/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="COMUNIÓN" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="137">
   <si>
     <t>FECHA</t>
   </si>
@@ -4107,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5286,9 +5286,13 @@
       <c r="B36" s="108"/>
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="110">
+        <v>45615</v>
+      </c>
       <c r="F36" s="87"/>
-      <c r="G36" s="223"/>
+      <c r="G36" s="223">
+        <v>8</v>
+      </c>
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
       <c r="J36" s="87"/>
@@ -8340,8 +8344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8691,8 +8695,12 @@
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
       <c r="E25" s="278"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="80"/>
+      <c r="F25" s="108">
+        <v>45616</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>102</v>
+      </c>
       <c r="H25" s="289"/>
       <c r="I25" s="79"/>
       <c r="J25" s="80"/>
@@ -8702,8 +8710,12 @@
       <c r="C26" s="79"/>
       <c r="D26" s="80"/>
       <c r="E26" s="279"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="80"/>
+      <c r="F26" s="108">
+        <v>45616</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>102</v>
+      </c>
       <c r="H26" s="290"/>
       <c r="I26" s="79"/>
       <c r="J26" s="80"/>
@@ -11995,8 +12007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
+++ b/fotocopias/FORMATO CONTROL DE  FOTOCOPIAS 2024.xlsx
@@ -8345,7 +8345,7 @@
   <dimension ref="A2:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D4" sqref="D4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
